--- a/upl_file_bunker/2425_Report.xlsx
+++ b/upl_file_bunker/2425_Report.xlsx
@@ -7314,7 +7314,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Latin American, CARIBBEAN, And Latino Studies, M.A.</t>
+          <t>Latin American, CARIBBEAN, and latino studies,  m.a.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -12142,7 +12142,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Women'S, GENDER, And Sexuality Studies, M.A.</t>
+          <t>Women'S, GENDER, and sexuality studies,  m.a.</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -14386,7 +14386,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Compliance, RISK, &amp; Anti-Money Laundering Graduate Certificate</t>
+          <t>Compliance, RISK, &amp; anti-money laundering graduate certificate</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -18806,7 +18806,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Pharmacy Entrepreneurship, LEADERSHIP &amp; Management Graduate Certificate</t>
+          <t>Pharmacy Entrepreneurship, LEADERSHIP &amp; management graduate certificate</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -19622,7 +19622,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Scholarly Excellence, LEADERSHIP Experiences, &amp; Collaborative Training (S.E.L.E.C.T) Graduate Certificate</t>
+          <t>Scholarly Excellence, LEADERSHIP experiences,  &amp; collaborative training (s.e.l.e.c.t) graduate certificate</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -21050,7 +21050,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Water, HEALTH And Sustainability Graduate Certificate</t>
+          <t>Water, HEALTH and sustainability graduate certificate</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -21186,7 +21186,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Women'S, GENDER, And Sexuality Studies Graduate Certificate</t>
+          <t>Women'S, GENDER, and sexuality studies graduate certificate</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -21798,7 +21798,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Language, SPEECH, And Hearing Sciences B.A.</t>
+          <t>Language, SPEECH, and hearing sciences b.a.</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -22002,7 +22002,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Criminology B.A., WITH Cybercrime Concentration</t>
+          <t>Criminology B.A., WITH cybercrime concentration</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -22138,7 +22138,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Behavioral Healthcare B.S., WITH Applied Behavior Analysis Concentration</t>
+          <t>Behavioral Healthcare B.S., WITH applied behavior analysis concentration</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -22206,7 +22206,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Behavioral Healthcare B.S., WITH Behavioral Health Across The Lifespan Concentration</t>
+          <t>Behavioral Healthcare B.S., WITH behavioral health across the lifespan concentration</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -22274,7 +22274,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Behavioral Healthcare B.S., WITH Children'S Behavioral Healthcare Concentration</t>
+          <t>Behavioral Healthcare B.S., WITH children's behavioral healthcare concentration</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -23022,7 +23022,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Mathematics Education B.S., WITH Middle School Mathematics Concentration</t>
+          <t>Mathematics Education B.S., WITH middle school mathematics concentration</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -23090,7 +23090,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Science Education B.S., WITH Biology Education Concentration</t>
+          <t>Science Education B.S., WITH biology education concentration</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -23158,7 +23158,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Science Education B.S., WITH Chemistry Education Concentration</t>
+          <t>Science Education B.S., WITH chemistry education concentration</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -23226,7 +23226,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Science Education B.S., WITH Physics Education Concentration</t>
+          <t>Science Education B.S., WITH physics education concentration</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -25264,7 +25264,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH Aging Health Studies And Health Care Administration Concentration</t>
+          <t>Health Sciences B.S., WITH aging health studies and health care administration concentration</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -25332,7 +25332,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH Aging Health Studies And Health Information Technology Concentration</t>
+          <t>Health Sciences B.S., WITH aging health studies and health information technology concentration</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -25400,7 +25400,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH Aging Health Studies Concentration</t>
+          <t>Health Sciences B.S., WITH aging health studies concentration</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -25468,7 +25468,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH Biological Health Sciences And Aging Health Studies Concentration</t>
+          <t>Health Sciences B.S., WITH biological health sciences and aging health studies concentration</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -25536,7 +25536,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH Biological Health Sciences And Health Care Administration Concentration</t>
+          <t>Health Sciences B.S., WITH biological health sciences and health care administration concentration</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -25604,7 +25604,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH Biological Health Sciences And Health Information Technology Concentration</t>
+          <t>Health Sciences B.S., WITH biological health sciences and health information technology concentration</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -25672,7 +25672,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH Biological Health Sciences And Social And Behavioral Health Sciences Concentration</t>
+          <t>Health Sciences B.S., WITH biological health sciences and social and behavioral health sciences concentration</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -25740,7 +25740,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH Biological Health Sciences Concentration</t>
+          <t>Health Sciences B.S., WITH biological health sciences concentration</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -25808,7 +25808,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH Health Care Administration And Health Information Technology Concentration</t>
+          <t>Health Sciences B.S., WITH health care administration and health information technology concentration</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -25876,7 +25876,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH Health Care Administration Concentration</t>
+          <t>Health Sciences B.S., WITH health care administration concentration</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -25944,7 +25944,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH Health Information Technology Concentration</t>
+          <t>Health Sciences B.S., WITH health information technology concentration</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -26012,7 +26012,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH Nutrition Science Concentration</t>
+          <t>Health Sciences B.S., WITH nutrition science concentration</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -26080,7 +26080,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH Social And Behavioral Health Sciences And Aging Health Studies Concentration</t>
+          <t>Health Sciences B.S., WITH social and behavioral health sciences and aging health studies concentration</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -26148,7 +26148,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH Social And Behavioral Health Sciences And Health Care Administration Concentration</t>
+          <t>Health Sciences B.S., WITH social and behavioral health sciences and health care administration concentration</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -26216,7 +26216,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH Social And Behavioral Health Sciences And Health Information Technology Concentration</t>
+          <t>Health Sciences B.S., WITH social and behavioral health sciences and health information technology concentration</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -26284,7 +26284,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH Social And Behavioral Health Sciences Concentration</t>
+          <t>Health Sciences B.S., WITH social and behavioral health sciences concentration</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -26828,7 +26828,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Graphic Arts B.F.A, WITH Graphic Design Concentration</t>
+          <t>Graphic Arts B.F.A, WITH graphic design concentration</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -26896,7 +26896,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Graphic Arts B.F.A, WITH Illustration Concentration</t>
+          <t>Graphic Arts B.F.A, WITH illustration concentration</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -27032,7 +27032,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Studio Art B.F.A., WITH Animation And Digital Modeling Concentration</t>
+          <t>Studio Art B.F.A., WITH animation and digital modeling concentration</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -27438,7 +27438,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Music Performance B.M., WITH Acoustic &amp; Electronic Composition Concentration</t>
+          <t>Music Performance B.M., WITH acoustic &amp; electronic composition concentration</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -27506,7 +27506,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Music Performance B.M., WITH Contemporary Commercial Music Concentration</t>
+          <t>Music Performance B.M., WITH contemporary commercial music concentration</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -27574,7 +27574,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Music Performance B.M., WITH Jazz Studies Concentration</t>
+          <t>Music Performance B.M., WITH jazz studies concentration</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -27642,7 +27642,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Music Performance B.M., WITH Performance Concentration</t>
+          <t>Music Performance B.M., WITH performance concentration</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -27710,7 +27710,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Dance B.A., WITH Dance Studies Concentration</t>
+          <t>Dance B.A., WITH dance studies concentration</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -27778,7 +27778,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Dance B.F.A., WITH Ballet Concentration</t>
+          <t>Dance B.F.A., WITH ballet concentration</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -27846,7 +27846,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Dance B.F.A., WITH Modern Dance Concentration</t>
+          <t>Dance B.F.A., WITH modern dance concentration</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -27982,7 +27982,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Theatre B.A., WITH Design And Technology Concentration</t>
+          <t>Theatre B.A., WITH design and technology concentration</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -28050,7 +28050,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Theatre B.A., WITH Performance Concentration</t>
+          <t>Theatre B.A., WITH performance concentration</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -28118,7 +28118,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Theatre B.A., WITH Theatre Arts Concentration</t>
+          <t>Theatre B.A., WITH theatre arts concentration</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -28730,7 +28730,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Finance B.S., WITH Corporate Finance Concentration</t>
+          <t>Finance B.S., WITH corporate finance concentration</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -28798,7 +28798,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Finance B.S., WITH Fintech Concentration</t>
+          <t>Finance B.S., WITH fintech concentration</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -28866,7 +28866,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Finance B.S., WITH Investment Analysis Concentration</t>
+          <t>Finance B.S., WITH investment analysis concentration</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -28934,7 +28934,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Finance B.S., WITH Real Estate Concentration</t>
+          <t>Finance B.S., WITH real estate concentration</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -29750,7 +29750,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Business Analytics And Information Systems B.S., WITH Cybersecurity Concentration</t>
+          <t>Business Analytics And Information Systems B.S., WITH cybersecurity concentration</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -29954,7 +29954,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Management B.S., WITH Aging Services Management Concentration</t>
+          <t>Management B.S., WITH aging services management concentration</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -30022,7 +30022,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Management B.S., WITH Human Resources Management Concentration</t>
+          <t>Management B.S., WITH human resources management concentration</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -30090,7 +30090,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Management B.S., WITH Project Management Concentration</t>
+          <t>Management B.S., WITH project management concentration</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -30566,7 +30566,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Global Business B.A., WITH Business Analytics And Information Systems Concentration</t>
+          <t>Global Business B.A., WITH business analytics and information systems concentration</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -30634,7 +30634,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Global Business B.A., WITH Finance Concentration</t>
+          <t>Global Business B.A., WITH finance concentration</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -30702,7 +30702,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Global Business B.A., WITH Management Concentration</t>
+          <t>Global Business B.A., WITH management concentration</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -30770,7 +30770,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Global Business B.A., WITH Marketing Concentration</t>
+          <t>Global Business B.A., WITH marketing concentration</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -30906,7 +30906,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Marketing B.S., WITH Digital Marketing Concentration</t>
+          <t>Marketing B.S., WITH digital marketing concentration</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -30974,7 +30974,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Marketing B.S., WITH Entrepreneurship Concentration</t>
+          <t>Marketing B.S., WITH entrepreneurship concentration</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -31042,7 +31042,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Marketing B.S., WITH Sales Concentration</t>
+          <t>Marketing B.S., WITH sales concentration</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -31110,7 +31110,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Marketing B.S., WITH Sport And Entertainment Management Concentration</t>
+          <t>Marketing B.S., WITH sport and entertainment management concentration</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -31926,7 +31926,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Applied Science B.S.A.S., WITH Aging Sciences Concentration</t>
+          <t>Applied Science B.S.A.S., WITH aging sciences concentration</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -31994,7 +31994,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Applied Science B.S.A.S., WITH Applied Behavior Analysis Concentration</t>
+          <t>Applied Science B.S.A.S., WITH applied behavior analysis concentration</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -32062,7 +32062,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Applied Science B.S.A.S., WITH Behavioral Healthcare Concentration</t>
+          <t>Applied Science B.S.A.S., WITH behavioral healthcare concentration</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -32130,7 +32130,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Applied Science B.S.A.S., WITH Criminal Justice Concentration</t>
+          <t>Applied Science B.S.A.S., WITH criminal justice concentration</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -32198,7 +32198,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Applied Science B.S.A.S., WITH Environmental Policy Concentration</t>
+          <t>Applied Science B.S.A.S., WITH environmental policy concentration</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -32266,7 +32266,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Applied Science B.S.A.S., WITH Hospitality Management Concentration</t>
+          <t>Applied Science B.S.A.S., WITH hospitality management concentration</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -32334,7 +32334,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Applied Science B.S.A.S., WITH Information Studies: Information Architecture Concentration</t>
+          <t>Applied Science B.S.A.S., WITH information studies: information architecture concentration</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -32402,7 +32402,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Applied Science B.S.A.S., WITH Leadership Studies Concentration</t>
+          <t>Applied Science B.S.A.S., WITH leadership studies concentration</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -32470,7 +32470,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Applied Science B.S.A.S., WITH Public Health Concentration</t>
+          <t>Applied Science B.S.A.S., WITH public health concentration</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -32538,7 +32538,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Applied Science B.S.A.S., WITH Public Service And Leadership Concentration</t>
+          <t>Applied Science B.S.A.S., WITH public service and leadership concentration</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -32606,7 +32606,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Applied Science B.S.A.S., WITH Urban Studies Concentration</t>
+          <t>Applied Science B.S.A.S., WITH urban studies concentration</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -32674,7 +32674,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>General Studies B.G.S., WITH Applied Behavior Analysis Concentration</t>
+          <t>General Studies B.G.S., WITH applied behavior analysis concentration</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -32742,7 +32742,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>General Studies B.G.S., WITH Behavioral Healthcare Concentration</t>
+          <t>General Studies B.G.S., WITH behavioral healthcare concentration</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -32810,7 +32810,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>General Studies B.G.S., WITH Business Concentration</t>
+          <t>General Studies B.G.S., WITH business concentration</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -32878,7 +32878,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>General Studies B.G.S., WITH Criminal Justice Concentration</t>
+          <t>General Studies B.G.S., WITH criminal justice concentration</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -32946,7 +32946,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>General Studies B.G.S., WITH Environmental Policy Concentration</t>
+          <t>General Studies B.G.S., WITH environmental policy concentration</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -33014,7 +33014,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>General Studies B.G.S., WITH Hospitality Management Concentration</t>
+          <t>General Studies B.G.S., WITH hospitality management concentration</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -33082,7 +33082,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>General Studies B.G.S., WITH Information Studies: Information Architecture Concentration</t>
+          <t>General Studies B.G.S., WITH information studies: information architecture concentration</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -33150,7 +33150,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>General Studies B.G.S., WITH Leadership Studies Concentration</t>
+          <t>General Studies B.G.S., WITH leadership studies concentration</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -33218,7 +33218,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>General Studies B.G.S., WITH Public Health Concentration</t>
+          <t>General Studies B.G.S., WITH public health concentration</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -33286,7 +33286,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>General Studies B.G.S., WITH Public Service And Leadership Concentration</t>
+          <t>General Studies B.G.S., WITH public service and leadership concentration</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -33354,7 +33354,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>General Studies B.G.S., WITH Urban Studies Concentration</t>
+          <t>General Studies B.G.S., WITH urban studies concentration</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -33422,7 +33422,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>General Studies B.G.S., WITH Women'S, Gender, And Sexuality Studies Concentration</t>
+          <t>General Studies B.G.S., WITH Women's,  gender,  and sexuality studies concentration</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -33966,7 +33966,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Integrated Public Relations And Advertising B.S., WITH Advertising Concentration</t>
+          <t>Integrated Public Relations And Advertising B.S., WITH advertising concentration</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -34034,7 +34034,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Integrated Public Relations And Advertising B.S., WITH Public Relations Concentration</t>
+          <t>Integrated Public Relations And Advertising B.S., WITH public relations concentration</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -34102,7 +34102,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Mass Communications B.A., WITH News And Content Creation Concentration</t>
+          <t>Mass Communications B.A., WITH news and content creation concentration</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -34170,7 +34170,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Mass Communications B.A., WITH Video And Documentary Production Concentration</t>
+          <t>Mass Communications B.A., WITH video and documentary production concentration</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -34850,7 +34850,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Chemistry B.A., WITH Biochemistry/Biotechnology Concentration</t>
+          <t>Chemistry B.A., WITH biochemistry/biotechnology concentration</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -35530,7 +35530,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>English B.A., WITH Creative Writing Concentration</t>
+          <t>English B.A., WITH creative writing concentration</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -35870,7 +35870,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Environmental Science And Policy B.S., WITH Environmental Analysis Concentration</t>
+          <t>Environmental Science And Policy B.S., WITH environmental analysis concentration</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -35938,7 +35938,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Environmental Science And Policy B.S., WITH Environmental Policy And Sustainability Concentration</t>
+          <t>Environmental Science And Policy B.S., WITH environmental policy and sustainability concentration</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -36006,7 +36006,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Environmental Science And Policy B.S., WITH Environmental Science Concentration</t>
+          <t>Environmental Science And Policy B.S., WITH environmental science concentration</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -36074,7 +36074,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Geography And Geographic Information Systems B.A., WITH Geographic Information Systems Concentration</t>
+          <t>Geography And Geographic Information Systems B.A., WITH geographic information systems concentration</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -36142,7 +36142,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Geography And Geographic Information Systems B.A., WITH Geography Concentration</t>
+          <t>Geography And Geographic Information Systems B.A., WITH geography concentration</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -36210,7 +36210,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Geography And Geographic Information Systems B.A., WITH Society And Environment Concentration</t>
+          <t>Geography And Geographic Information Systems B.A., WITH society and environment concentration</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -36752,7 +36752,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Humanities And Cultural Studies B.A., WITH American Studies Concentration</t>
+          <t>Humanities And Cultural Studies B.A., WITH american studies concentration</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -36956,7 +36956,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Information Science B.S., WITH Data Science And Analytics Concentration</t>
+          <t>Information Science B.S., WITH data science and analytics concentration</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -37024,7 +37024,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Information Science B.S., WITH Health Informatics Concentration</t>
+          <t>Information Science B.S., WITH health informatics concentration</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -37092,7 +37092,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Information Science B.S., WITH Information Security Concentration</t>
+          <t>Information Science B.S., WITH information security concentration</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -37160,7 +37160,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Information Science B.S., WITH Intelligence Analysis Concentration</t>
+          <t>Information Science B.S., WITH intelligence analysis concentration</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -37228,7 +37228,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Information Science B.S., WITH Web Development Technologies Concentration</t>
+          <t>Information Science B.S., WITH web development technologies concentration</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -37500,7 +37500,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Biology B.S., WITH Animal Biology Concentration</t>
+          <t>Biology B.S., WITH animal biology concentration</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -37568,7 +37568,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Biology B.S., WITH Ecology And Evolution Concentration</t>
+          <t>Biology B.S., WITH ecology and evolution concentration</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -37636,7 +37636,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Biology B.S., WITH Medical Biology Concentration</t>
+          <t>Biology B.S., WITH medical biology concentration</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -37704,7 +37704,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Biology B.S., WITH Plant Biology Concentration</t>
+          <t>Biology B.S., WITH plant biology concentration</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -38384,7 +38384,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Mathematics B.A., WITH Applied/Computational Mathematics Concentration</t>
+          <t>Mathematics B.A., WITH applied/computational mathematics concentration</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -38452,7 +38452,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Mathematics B.A., WITH General Mathematics Concentration</t>
+          <t>Mathematics B.A., WITH general mathematics concentration</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -38520,7 +38520,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Mathematics B.A., WITH Pure Mathematics Concentration</t>
+          <t>Mathematics B.A., WITH pure mathematics concentration</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -38588,7 +38588,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Mathematics: Computational And Applied B.S., WITH Data Analytics And Business Intelligence Concentration</t>
+          <t>Mathematics: Computational And Applied B.S., WITH data analytics and business intelligence concentration</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -38656,7 +38656,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Mathematics: Computational And Applied B.S., WITH Discrete Mathematics And Cryptography Concentration</t>
+          <t>Mathematics: Computational And Applied B.S., WITH discrete mathematics and cryptography concentration</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -39540,7 +39540,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Psychology B.A., WITH Advanced Research Experience In Psychology Concentration</t>
+          <t>Psychology B.A., WITH advanced research experience in psychology concentration</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -39608,7 +39608,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Psychology B.A., WITH Diversity Concentration</t>
+          <t>Psychology B.A., WITH diversity concentration</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -40084,7 +40084,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH Africana Studies Concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., WITH africana studies concentration</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -40152,7 +40152,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH Aging Sciences Concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., WITH aging sciences concentration</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -40220,7 +40220,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH American Studies Concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., WITH american studies concentration</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -40288,7 +40288,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH Anthropology Concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., WITH anthropology concentration</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
@@ -40356,7 +40356,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH Behavioral Healthcare Concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., WITH behavioral healthcare concentration</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
@@ -40424,7 +40424,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH Communication Concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., WITH communication concentration</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -40492,7 +40492,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH Communication Sciences And Disorders Concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., WITH communication sciences and disorders concentration</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -40560,7 +40560,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH Criminology Concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., WITH criminology concentration</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -40628,7 +40628,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH Deaf Studies Concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., WITH deaf studies concentration</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -40696,7 +40696,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH Economics Concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., WITH economics concentration</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -40764,7 +40764,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH Environmental Science And Policy Concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., WITH environmental science and policy concentration</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -40832,7 +40832,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH Geography Concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., WITH geography concentration</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -40900,7 +40900,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH Government And Global Affairs Concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., WITH government and global affairs concentration</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -40968,7 +40968,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH History Concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., WITH history concentration</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -41036,7 +41036,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH Humanities Concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., WITH humanities concentration</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -41104,7 +41104,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH Information Studies Concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., WITH information studies concentration</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -41172,7 +41172,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH Integrated Community Research Concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., WITH integrated community research concentration</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -41240,7 +41240,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH International Studies Concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., WITH international studies concentration</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -41308,7 +41308,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH Latin American, Caribbean, And Latino Studies Concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., WITH latin american, Caribbean,  and latino studies concentration</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -41376,7 +41376,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH Mass Communications Concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., WITH mass communications concentration</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -41444,7 +41444,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH Political Science Concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., WITH political science concentration</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -41512,7 +41512,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH Psychology Concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., WITH psychology concentration</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -41580,7 +41580,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH Public Administration Concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., WITH public administration concentration</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -41648,7 +41648,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH Public Health Concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., WITH public health concentration</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -41716,7 +41716,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH Social Relations And Policy Concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., WITH social relations and policy concentration</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
@@ -41784,7 +41784,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH Women'S And Gender Studies Concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., WITH Women's and gender studies concentration</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -41920,7 +41920,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>Sociology B.A., WITH Identity And Community Concentration</t>
+          <t>Sociology B.A., WITH identity and community concentration</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -41988,7 +41988,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>Sociology B.A., WITH Inequality And Social Justice Concentration</t>
+          <t>Sociology B.A., WITH inequality and social justice concentration</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -42124,7 +42124,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Women'S, GENDER, And Sexuality Studies B.A.</t>
+          <t>Women'S, GENDER, and sexuality studies b.a.</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -42260,7 +42260,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>Women'S, GENDER, And Sexuality Studies Minor</t>
+          <t>Women'S, GENDER, and sexuality studies minor</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -42328,7 +42328,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>World Languages And Cultures B.A., WITH Applied Linguistics Concentration</t>
+          <t>World Languages And Cultures B.A., WITH applied linguistics concentration</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -42396,7 +42396,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>World Languages And Cultures B.A., WITH Chinese Language And Culture Concentration</t>
+          <t>World Languages And Cultures B.A., WITH chinese language and culture concentration</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
@@ -42464,7 +42464,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>World Languages And Cultures B.A., WITH Classics Concentration</t>
+          <t>World Languages And Cultures B.A., WITH classics concentration</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -42532,7 +42532,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>World Languages And Cultures B.A., WITH East Asian Languages And Cultures Concentration</t>
+          <t>World Languages And Cultures B.A., WITH east asian languages and cultures concentration</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -42600,7 +42600,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>World Languages And Cultures B.A., WITH French And Francophone Studies Concentration</t>
+          <t>World Languages And Cultures B.A., WITH french and francophone studies concentration</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -42668,7 +42668,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>World Languages And Cultures B.A., WITH German Concentration</t>
+          <t>World Languages And Cultures B.A., WITH german concentration</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -42736,7 +42736,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>World Languages And Cultures B.A., WITH Interdisciplinary Classical Civilizations Concentration</t>
+          <t>World Languages And Cultures B.A., WITH interdisciplinary classical civilizations concentration</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -42804,7 +42804,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>World Languages And Cultures B.A., WITH Italian Concentration</t>
+          <t>World Languages And Cultures B.A., WITH italian concentration</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -42872,7 +42872,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>World Languages And Cultures B.A., WITH Russian Concentration</t>
+          <t>World Languages And Cultures B.A., WITH russian concentration</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -42940,7 +42940,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>World Languages And Cultures B.A., WITH Spanish And Latin American Studies Concentration</t>
+          <t>World Languages And Cultures B.A., WITH spanish and latin american studies concentration</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">

--- a/upl_file_bunker/2425_Report.xlsx
+++ b/upl_file_bunker/2425_Report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P631"/>
+  <dimension ref="A1:Q631"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,6 +511,11 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Program Name Clean</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Flag</t>
         </is>
       </c>
@@ -582,6 +587,7 @@
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -650,11 +656,12 @@
         </is>
       </c>
       <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Aging Studies, PH.D.</t>
+          <t>Aging Studies, Ph.D.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -718,6 +725,7 @@
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -786,6 +794,7 @@
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -854,11 +863,12 @@
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Applied Anthropology, PH.D.</t>
+          <t>Applied Anthropology, Ph.D.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -922,6 +932,7 @@
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -990,6 +1001,7 @@
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1058,11 +1070,12 @@
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Applied Behavior Analysis, PH.D.</t>
+          <t>Applied Behavior Analysis, Ph.D.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1126,6 +1139,7 @@
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1194,11 +1208,12 @@
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Architecture, M.ARCH.</t>
+          <t>Architecture, M.Arch.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1262,6 +1277,7 @@
         </is>
       </c>
       <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1330,6 +1346,7 @@
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1398,6 +1415,7 @@
         </is>
       </c>
       <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1466,6 +1484,7 @@
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1534,11 +1553,12 @@
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Audiology, AU.D.</t>
+          <t>Audiology, Au.D.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1602,11 +1622,12 @@
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Behavioral And Community Sciences, PH.D.</t>
+          <t>Behavioral And Community Sciences, Ph.D.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1670,11 +1691,12 @@
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Big Data Analytics, PH.D.</t>
+          <t>Big Data Analytics, Ph.D.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1738,6 +1760,7 @@
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1806,6 +1829,7 @@
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1874,6 +1898,7 @@
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1942,11 +1967,12 @@
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Biomedical Engineering, PH.D.</t>
+          <t>Biomedical Engineering, Ph.D.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2010,6 +2036,7 @@
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2078,6 +2105,7 @@
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2146,11 +2174,12 @@
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Business Administration, PH.D.</t>
+          <t>Business Administration, Ph.D.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2214,11 +2243,12 @@
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Cancer Biology, PH.D.</t>
+          <t>Cancer Biology, Ph.D.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2282,11 +2312,12 @@
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Cancer Chemical Biology, PH.D.</t>
+          <t>Cancer Chemical Biology, Ph.D.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2350,11 +2381,12 @@
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Cancer Immunology And Immunotherapy, PH.D.</t>
+          <t>Cancer Immunology And Immunotherapy, Ph.D.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2418,6 +2450,7 @@
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2486,11 +2519,12 @@
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Cell And Molecular Biology, PH.D.</t>
+          <t>Cell And Molecular Biology, Ph.D.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2554,11 +2588,12 @@
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Chemical Engineering, M.S.CH.</t>
+          <t>Chemical Engineering, M.S.Ch.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2622,11 +2657,12 @@
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Chemical Engineering, PH.D.</t>
+          <t>Chemical Engineering, Ph.D.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2690,6 +2726,7 @@
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2758,6 +2795,7 @@
         </is>
       </c>
       <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2826,11 +2864,12 @@
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Chemistry, PH.D.</t>
+          <t>Chemistry, Ph.D.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2894,6 +2933,7 @@
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2962,6 +3002,7 @@
         </is>
       </c>
       <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3028,11 +3069,12 @@
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Civil Engineering, PH.D.</t>
+          <t>Civil Engineering, Ph.D.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3096,6 +3138,7 @@
         </is>
       </c>
       <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3164,11 +3207,12 @@
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Communication Sciences And Disorders, PH.D.</t>
+          <t>Communication Sciences And Disorders, Ph.D.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3232,6 +3276,7 @@
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3300,11 +3345,12 @@
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Communication, PH.D.</t>
+          <t>Communication, Ph.D.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3368,6 +3414,7 @@
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3436,11 +3483,12 @@
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Computer Science And Engineering, PH.D.</t>
+          <t>Computer Science And Engineering, Ph.D.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3504,6 +3552,7 @@
         </is>
       </c>
       <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3572,6 +3621,7 @@
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3640,6 +3690,7 @@
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3708,6 +3759,7 @@
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3776,6 +3828,7 @@
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3844,6 +3897,7 @@
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3912,11 +3966,12 @@
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Curriculum And Instruction, ED.S.</t>
+          <t>Curriculum And Instruction, Ed.S.</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3980,11 +4035,12 @@
         </is>
       </c>
       <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Curriculum And Instruction, PH.D.</t>
+          <t>Curriculum And Instruction, Ph.D.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4048,6 +4104,7 @@
         </is>
       </c>
       <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4116,6 +4173,7 @@
         </is>
       </c>
       <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4184,6 +4242,7 @@
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4252,6 +4311,7 @@
         </is>
       </c>
       <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4320,6 +4380,7 @@
         </is>
       </c>
       <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4388,6 +4449,7 @@
         </is>
       </c>
       <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4456,11 +4518,12 @@
         </is>
       </c>
       <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Economics, PH.D.</t>
+          <t>Economics, Ph.D.</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4524,11 +4587,12 @@
         </is>
       </c>
       <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Educational Leadership, ED.S.</t>
+          <t>Educational Leadership, Ed.S.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4592,11 +4656,12 @@
         </is>
       </c>
       <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Educational Leadership, PH.D.</t>
+          <t>Educational Leadership, Ph.D.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4660,11 +4725,12 @@
         </is>
       </c>
       <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Educational Program Development, ED.D.</t>
+          <t>Educational Program Development, Ed.D.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4728,6 +4794,7 @@
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4796,6 +4863,7 @@
         </is>
       </c>
       <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4864,11 +4932,12 @@
         </is>
       </c>
       <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Electrical Engineering, PH.D.</t>
+          <t>Electrical Engineering, Ph.D.</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4932,11 +5001,12 @@
         </is>
       </c>
       <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Elementary Education (Esol Endorsement), M.A.T.</t>
+          <t>Elementary Education (ESOL Endorsement), M.A.T.</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5000,6 +5070,7 @@
         </is>
       </c>
       <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5068,6 +5139,7 @@
         </is>
       </c>
       <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5136,6 +5208,7 @@
         </is>
       </c>
       <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5204,11 +5277,12 @@
         </is>
       </c>
       <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>English, PH.D.</t>
+          <t>English, Ph.D.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5272,6 +5346,7 @@
         </is>
       </c>
       <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5340,6 +5415,7 @@
         </is>
       </c>
       <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5406,11 +5482,12 @@
         </is>
       </c>
       <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Environmental Engineering, PH.D.</t>
+          <t>Environmental Engineering, Ph.D.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5474,6 +5551,7 @@
         </is>
       </c>
       <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5542,11 +5620,12 @@
         </is>
       </c>
       <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Exceptional Student Education (Esol And Reading Endorsements), M.A.T.</t>
+          <t>Exceptional Student Education (ESOL And Reading Endorsements), M.A.T.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5610,6 +5689,7 @@
         </is>
       </c>
       <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5678,6 +5758,7 @@
         </is>
       </c>
       <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5746,6 +5827,7 @@
         </is>
       </c>
       <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5814,6 +5896,7 @@
         </is>
       </c>
       <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5882,6 +5965,7 @@
         </is>
       </c>
       <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5950,11 +6034,12 @@
         </is>
       </c>
       <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Geography And Environmental Science And Policy, PH.D.</t>
+          <t>Geography And Environmental Science And Policy, Ph.D.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6018,6 +6103,7 @@
         </is>
       </c>
       <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6086,6 +6172,7 @@
         </is>
       </c>
       <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6154,11 +6241,12 @@
         </is>
       </c>
       <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Geology, PH.D.</t>
+          <t>Geology, Ph.D.</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6222,6 +6310,7 @@
         </is>
       </c>
       <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6290,6 +6379,7 @@
         </is>
       </c>
       <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6358,6 +6448,7 @@
         </is>
       </c>
       <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6426,6 +6517,7 @@
         </is>
       </c>
       <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6494,6 +6586,7 @@
         </is>
       </c>
       <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6562,11 +6655,12 @@
         </is>
       </c>
       <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Higher Education Administration, PH.D.</t>
+          <t>Higher Education Administration, Ph.D.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6630,6 +6724,7 @@
         </is>
       </c>
       <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6698,11 +6793,12 @@
         </is>
       </c>
       <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>History, PH.D.</t>
+          <t>History, Ph.D.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6766,6 +6862,7 @@
         </is>
       </c>
       <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6834,6 +6931,7 @@
         </is>
       </c>
       <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6902,11 +7000,12 @@
         </is>
       </c>
       <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Industrial Engineering, PH.D.</t>
+          <t>Industrial Engineering, Ph.D.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6970,6 +7069,7 @@
         </is>
       </c>
       <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7038,11 +7138,12 @@
         </is>
       </c>
       <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Integrated Mathematical Oncology, PH.D.</t>
+          <t>Integrated Mathematical Oncology, Ph.D.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -7106,11 +7207,12 @@
         </is>
       </c>
       <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Integrative Biology, PH.D.</t>
+          <t>Integrative Biology, Ph.D.</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -7174,6 +7276,7 @@
         </is>
       </c>
       <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7242,6 +7345,7 @@
         </is>
       </c>
       <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7310,11 +7414,12 @@
         </is>
       </c>
       <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Latin American, CARIBBEAN, and latino studies,  m.a.</t>
+          <t>Latin American, Caribbean, and Latino Studies, M.A.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -7378,6 +7483,7 @@
         </is>
       </c>
       <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7446,6 +7552,7 @@
         </is>
       </c>
       <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7514,6 +7621,7 @@
         </is>
       </c>
       <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7582,11 +7690,12 @@
         </is>
       </c>
       <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Linguistics And Applied Language Studies, PH.D.</t>
+          <t>Linguistics And Applied Language Studies, Ph.D.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -7650,6 +7759,7 @@
         </is>
       </c>
       <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7718,6 +7828,7 @@
         </is>
       </c>
       <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7786,6 +7897,7 @@
         </is>
       </c>
       <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7854,11 +7966,12 @@
         </is>
       </c>
       <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Marine Science, PH.D.</t>
+          <t>Marine Science, Ph.D.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -7922,6 +8035,7 @@
         </is>
       </c>
       <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7990,6 +8104,7 @@
         </is>
       </c>
       <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8058,6 +8173,7 @@
         </is>
       </c>
       <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8126,6 +8242,7 @@
         </is>
       </c>
       <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8194,6 +8311,7 @@
         </is>
       </c>
       <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8262,6 +8380,7 @@
         </is>
       </c>
       <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8330,11 +8449,12 @@
         </is>
       </c>
       <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Mathematics, PH.D.</t>
+          <t>Mathematics, Ph.D.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -8398,6 +8518,7 @@
         </is>
       </c>
       <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8466,11 +8587,12 @@
         </is>
       </c>
       <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Mechanical Engineering, PH.D.</t>
+          <t>Mechanical Engineering, Ph.D.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -8534,6 +8656,7 @@
         </is>
       </c>
       <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8602,11 +8725,12 @@
         </is>
       </c>
       <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Medical Sciences, PH.D.</t>
+          <t>Medical Sciences, Ph.D.</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -8670,6 +8794,7 @@
         </is>
       </c>
       <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8738,6 +8863,7 @@
         </is>
       </c>
       <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8806,6 +8932,7 @@
         </is>
       </c>
       <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8874,6 +9001,7 @@
         </is>
       </c>
       <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8942,11 +9070,12 @@
         </is>
       </c>
       <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Music, PH.D.</t>
+          <t>Music, Ph.D.</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -9010,6 +9139,7 @@
         </is>
       </c>
       <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -9078,11 +9208,12 @@
         </is>
       </c>
       <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Nursing (Bsn To Msn), MSN.</t>
+          <t>Nursing (BSN To Msn), Msn.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -9146,11 +9277,12 @@
         </is>
       </c>
       <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Nursing Science, PH.D.</t>
+          <t>Nursing Science, Ph.D.</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -9214,6 +9346,7 @@
         </is>
       </c>
       <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -9282,6 +9415,7 @@
         </is>
       </c>
       <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9350,11 +9484,12 @@
         </is>
       </c>
       <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Pharmacy, PHARM.D.</t>
+          <t>Pharmacy, Pharm.D.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -9418,6 +9553,7 @@
         </is>
       </c>
       <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9486,11 +9622,12 @@
         </is>
       </c>
       <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Philosophy, PH.D.</t>
+          <t>Philosophy, Ph.D.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -9554,6 +9691,7 @@
         </is>
       </c>
       <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9622,6 +9760,7 @@
         </is>
       </c>
       <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9690,6 +9829,7 @@
         </is>
       </c>
       <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -9758,11 +9898,12 @@
         </is>
       </c>
       <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Physics (Applied Physics), PH.D.</t>
+          <t>Physics (Applied Physics), Ph.D.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -9826,6 +9967,7 @@
         </is>
       </c>
       <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -9894,11 +10036,12 @@
         </is>
       </c>
       <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Politics And International Affairs, PH.D.</t>
+          <t>Politics And International Affairs, Ph.D.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -9962,6 +10105,7 @@
         </is>
       </c>
       <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -10030,11 +10174,12 @@
         </is>
       </c>
       <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Psychology, PH.D.</t>
+          <t>Psychology, Ph.D.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -10098,6 +10243,7 @@
         </is>
       </c>
       <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -10166,6 +10312,7 @@
         </is>
       </c>
       <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -10234,11 +10381,12 @@
         </is>
       </c>
       <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Public Health, DR.P.H.</t>
+          <t>Public Health, Dr.P.H.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -10302,6 +10450,7 @@
         </is>
       </c>
       <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -10370,6 +10519,7 @@
         </is>
       </c>
       <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -10438,11 +10588,12 @@
         </is>
       </c>
       <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Public Health, PH.D.</t>
+          <t>Public Health, Ph.D.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -10506,6 +10657,7 @@
         </is>
       </c>
       <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -10574,6 +10726,7 @@
         </is>
       </c>
       <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -10642,6 +10795,7 @@
         </is>
       </c>
       <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -10710,11 +10864,12 @@
         </is>
       </c>
       <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>School Psychology, ED.S.</t>
+          <t>School Psychology, Ed.S.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -10778,6 +10933,7 @@
         </is>
       </c>
       <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -10846,11 +11002,12 @@
         </is>
       </c>
       <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>School Psychology, PH.D.</t>
+          <t>School Psychology, Ph.D.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -10914,6 +11071,7 @@
         </is>
       </c>
       <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -10982,11 +11140,12 @@
         </is>
       </c>
       <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Secondary English Education (Esol And Reading Endorsements), M.A.T.</t>
+          <t>Secondary English Education (ESOL And Reading Endorsements), M.A.T.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -11050,6 +11209,7 @@
         </is>
       </c>
       <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -11118,6 +11278,7 @@
         </is>
       </c>
       <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -11186,6 +11347,7 @@
         </is>
       </c>
       <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -11254,11 +11416,12 @@
         </is>
       </c>
       <c r="P159" t="inlineStr"/>
+      <c r="Q159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Social Work, PH.D.</t>
+          <t>Social Work, Ph.D.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -11322,6 +11485,7 @@
         </is>
       </c>
       <c r="P160" t="inlineStr"/>
+      <c r="Q160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -11390,11 +11554,12 @@
         </is>
       </c>
       <c r="P161" t="inlineStr"/>
+      <c r="Q161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sociology, PH.D.</t>
+          <t>Sociology, Ph.D.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -11458,6 +11623,7 @@
         </is>
       </c>
       <c r="P162" t="inlineStr"/>
+      <c r="Q162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -11526,6 +11692,7 @@
         </is>
       </c>
       <c r="P163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -11594,6 +11761,7 @@
         </is>
       </c>
       <c r="P164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -11662,6 +11830,7 @@
         </is>
       </c>
       <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -11730,6 +11899,7 @@
         </is>
       </c>
       <c r="P166" t="inlineStr"/>
+      <c r="Q166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -11798,6 +11968,7 @@
         </is>
       </c>
       <c r="P167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -11866,11 +12037,12 @@
         </is>
       </c>
       <c r="P168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Technology In Education And Second Language Acquisition (Tesla), PH.D.</t>
+          <t>Technology In Education And Second Language Acquisition (TESLA), Ph.D.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -11934,6 +12106,7 @@
         </is>
       </c>
       <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -12002,6 +12175,7 @@
         </is>
       </c>
       <c r="P170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -12070,6 +12244,7 @@
         </is>
       </c>
       <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -12138,11 +12313,12 @@
         </is>
       </c>
       <c r="P172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Women'S, GENDER, and sexuality studies,  m.a.</t>
+          <t>Women's, Gender, and Sexuality Studies, M.A.</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -12206,6 +12382,7 @@
         </is>
       </c>
       <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -12274,11 +12451,12 @@
         </is>
       </c>
       <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Criminology, PH.D.</t>
+          <t>Criminology, Ph.D.</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -12342,11 +12520,12 @@
         </is>
       </c>
       <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Curriculum And Instruction, M.ED.</t>
+          <t>Curriculum And Instruction, M.Ed.</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -12410,11 +12589,12 @@
         </is>
       </c>
       <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Educational Leadership, M.ED.</t>
+          <t>Educational Leadership, M.Ed.</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -12478,6 +12658,7 @@
         </is>
       </c>
       <c r="P177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -12546,6 +12727,7 @@
         </is>
       </c>
       <c r="P178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -12614,6 +12796,7 @@
         </is>
       </c>
       <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -12682,11 +12865,12 @@
         </is>
       </c>
       <c r="P180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Adult-Gerontology Acute Care (Post Master'S) Graduate Certificate</t>
+          <t>Adult-Gerontology Acute Care (Post Master's) Graduate Certificate</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -12750,6 +12934,7 @@
         </is>
       </c>
       <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -12818,6 +13003,7 @@
         </is>
       </c>
       <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -12886,6 +13072,7 @@
         </is>
       </c>
       <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -12954,6 +13141,7 @@
         </is>
       </c>
       <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -13022,6 +13210,7 @@
         </is>
       </c>
       <c r="P185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -13090,6 +13279,7 @@
         </is>
       </c>
       <c r="P186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -13158,6 +13348,7 @@
         </is>
       </c>
       <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -13226,6 +13417,7 @@
         </is>
       </c>
       <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -13294,6 +13486,7 @@
         </is>
       </c>
       <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -13362,6 +13555,7 @@
         </is>
       </c>
       <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -13430,6 +13624,7 @@
         </is>
       </c>
       <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -13498,6 +13693,7 @@
         </is>
       </c>
       <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -13566,6 +13762,7 @@
         </is>
       </c>
       <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -13634,6 +13831,7 @@
         </is>
       </c>
       <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -13702,6 +13900,7 @@
         </is>
       </c>
       <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -13770,6 +13969,7 @@
         </is>
       </c>
       <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -13838,6 +14038,7 @@
         </is>
       </c>
       <c r="P197" t="inlineStr"/>
+      <c r="Q197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -13906,6 +14107,7 @@
         </is>
       </c>
       <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -13974,11 +14176,12 @@
         </is>
       </c>
       <c r="P199" t="inlineStr"/>
+      <c r="Q199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Children'S Mental Health Graduate Certificate</t>
+          <t>Children's Mental Health Graduate Certificate</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -14042,6 +14245,7 @@
         </is>
       </c>
       <c r="P200" t="inlineStr"/>
+      <c r="Q200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -14110,6 +14314,7 @@
         </is>
       </c>
       <c r="P201" t="inlineStr"/>
+      <c r="Q201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -14178,6 +14383,7 @@
         </is>
       </c>
       <c r="P202" t="inlineStr"/>
+      <c r="Q202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -14246,6 +14452,7 @@
         </is>
       </c>
       <c r="P203" t="inlineStr"/>
+      <c r="Q203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -14314,6 +14521,7 @@
         </is>
       </c>
       <c r="P204" t="inlineStr"/>
+      <c r="Q204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -14382,11 +14590,12 @@
         </is>
       </c>
       <c r="P205" t="inlineStr"/>
+      <c r="Q205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Compliance, RISK, &amp; anti-money laundering graduate certificate</t>
+          <t>Compliance, Risk, &amp; Anti-Money Laundering Graduate Certificate</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -14450,11 +14659,12 @@
         </is>
       </c>
       <c r="P206" t="inlineStr"/>
+      <c r="Q206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Concepts &amp; Tools Of Epidemiology Graduate Certificate</t>
+          <t>Concepts &amp; Tools of Epidemiology Graduate Certificate</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -14518,6 +14728,7 @@
         </is>
       </c>
       <c r="P207" t="inlineStr"/>
+      <c r="Q207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -14586,6 +14797,7 @@
         </is>
       </c>
       <c r="P208" t="inlineStr"/>
+      <c r="Q208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -14654,6 +14866,7 @@
         </is>
       </c>
       <c r="P209" t="inlineStr"/>
+      <c r="Q209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -14722,6 +14935,7 @@
         </is>
       </c>
       <c r="P210" t="inlineStr"/>
+      <c r="Q210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -14790,6 +15004,7 @@
         </is>
       </c>
       <c r="P211" t="inlineStr"/>
+      <c r="Q211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -14858,6 +15073,7 @@
         </is>
       </c>
       <c r="P212" t="inlineStr"/>
+      <c r="Q212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -14926,6 +15142,7 @@
         </is>
       </c>
       <c r="P213" t="inlineStr"/>
+      <c r="Q213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -14994,6 +15211,7 @@
         </is>
       </c>
       <c r="P214" t="inlineStr"/>
+      <c r="Q214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -15062,6 +15280,7 @@
         </is>
       </c>
       <c r="P215" t="inlineStr"/>
+      <c r="Q215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -15130,6 +15349,7 @@
         </is>
       </c>
       <c r="P216" t="inlineStr"/>
+      <c r="Q216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -15198,6 +15418,7 @@
         </is>
       </c>
       <c r="P217" t="inlineStr"/>
+      <c r="Q217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -15266,6 +15487,7 @@
         </is>
       </c>
       <c r="P218" t="inlineStr"/>
+      <c r="Q218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -15334,6 +15556,7 @@
         </is>
       </c>
       <c r="P219" t="inlineStr"/>
+      <c r="Q219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -15402,6 +15625,7 @@
         </is>
       </c>
       <c r="P220" t="inlineStr"/>
+      <c r="Q220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -15470,6 +15694,7 @@
         </is>
       </c>
       <c r="P221" t="inlineStr"/>
+      <c r="Q221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -15538,6 +15763,7 @@
         </is>
       </c>
       <c r="P222" t="inlineStr"/>
+      <c r="Q222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -15606,6 +15832,7 @@
         </is>
       </c>
       <c r="P223" t="inlineStr"/>
+      <c r="Q223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -15674,6 +15901,7 @@
         </is>
       </c>
       <c r="P224" t="inlineStr"/>
+      <c r="Q224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -15742,11 +15970,12 @@
         </is>
       </c>
       <c r="P225" t="inlineStr"/>
+      <c r="Q225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Epidemiology Of Infectious Diseases Graduate Certificate</t>
+          <t>Epidemiology of Infectious Diseases Graduate Certificate</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -15810,11 +16039,12 @@
         </is>
       </c>
       <c r="P226" t="inlineStr"/>
+      <c r="Q226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Esol Graduate Certificate</t>
+          <t>ESOL Graduate Certificate</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -15878,6 +16108,7 @@
         </is>
       </c>
       <c r="P227" t="inlineStr"/>
+      <c r="Q227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -15946,6 +16177,7 @@
         </is>
       </c>
       <c r="P228" t="inlineStr"/>
+      <c r="Q228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -16014,6 +16246,7 @@
         </is>
       </c>
       <c r="P229" t="inlineStr"/>
+      <c r="Q229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -16082,6 +16315,7 @@
         </is>
       </c>
       <c r="P230" t="inlineStr"/>
+      <c r="Q230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -16150,6 +16384,7 @@
         </is>
       </c>
       <c r="P231" t="inlineStr"/>
+      <c r="Q231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -16218,6 +16453,7 @@
         </is>
       </c>
       <c r="P232" t="inlineStr"/>
+      <c r="Q232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -16286,6 +16522,7 @@
         </is>
       </c>
       <c r="P233" t="inlineStr"/>
+      <c r="Q233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -16354,6 +16591,7 @@
         </is>
       </c>
       <c r="P234" t="inlineStr"/>
+      <c r="Q234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -16422,6 +16660,7 @@
         </is>
       </c>
       <c r="P235" t="inlineStr"/>
+      <c r="Q235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -16490,6 +16729,7 @@
         </is>
       </c>
       <c r="P236" t="inlineStr"/>
+      <c r="Q236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -16558,6 +16798,7 @@
         </is>
       </c>
       <c r="P237" t="inlineStr"/>
+      <c r="Q237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -16626,6 +16867,7 @@
         </is>
       </c>
       <c r="P238" t="inlineStr"/>
+      <c r="Q238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -16694,6 +16936,7 @@
         </is>
       </c>
       <c r="P239" t="inlineStr"/>
+      <c r="Q239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -16762,6 +17005,7 @@
         </is>
       </c>
       <c r="P240" t="inlineStr"/>
+      <c r="Q240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -16830,6 +17074,7 @@
         </is>
       </c>
       <c r="P241" t="inlineStr"/>
+      <c r="Q241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -16898,6 +17143,7 @@
         </is>
       </c>
       <c r="P242" t="inlineStr"/>
+      <c r="Q242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -16966,6 +17212,7 @@
         </is>
       </c>
       <c r="P243" t="inlineStr"/>
+      <c r="Q243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -17034,6 +17281,7 @@
         </is>
       </c>
       <c r="P244" t="inlineStr"/>
+      <c r="Q244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -17102,6 +17350,7 @@
         </is>
       </c>
       <c r="P245" t="inlineStr"/>
+      <c r="Q245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -17170,6 +17419,7 @@
         </is>
       </c>
       <c r="P246" t="inlineStr"/>
+      <c r="Q246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -17238,6 +17488,7 @@
         </is>
       </c>
       <c r="P247" t="inlineStr"/>
+      <c r="Q247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -17306,6 +17557,7 @@
         </is>
       </c>
       <c r="P248" t="inlineStr"/>
+      <c r="Q248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -17374,6 +17626,7 @@
         </is>
       </c>
       <c r="P249" t="inlineStr"/>
+      <c r="Q249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -17442,6 +17695,7 @@
         </is>
       </c>
       <c r="P250" t="inlineStr"/>
+      <c r="Q250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -17510,6 +17764,7 @@
         </is>
       </c>
       <c r="P251" t="inlineStr"/>
+      <c r="Q251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -17578,6 +17833,7 @@
         </is>
       </c>
       <c r="P252" t="inlineStr"/>
+      <c r="Q252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -17646,6 +17902,7 @@
         </is>
       </c>
       <c r="P253" t="inlineStr"/>
+      <c r="Q253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -17714,6 +17971,7 @@
         </is>
       </c>
       <c r="P254" t="inlineStr"/>
+      <c r="Q254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -17782,6 +18040,7 @@
         </is>
       </c>
       <c r="P255" t="inlineStr"/>
+      <c r="Q255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -17850,6 +18109,7 @@
         </is>
       </c>
       <c r="P256" t="inlineStr"/>
+      <c r="Q256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -17918,6 +18178,7 @@
         </is>
       </c>
       <c r="P257" t="inlineStr"/>
+      <c r="Q257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -17986,6 +18247,7 @@
         </is>
       </c>
       <c r="P258" t="inlineStr"/>
+      <c r="Q258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -18054,11 +18316,12 @@
         </is>
       </c>
       <c r="P259" t="inlineStr"/>
+      <c r="Q259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Management Of Non-Governmental And Non-Profit Organizations Graduate Certificate</t>
+          <t>Management of Non-Governmental And Non-Profit Organizations Graduate Certificate</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -18122,6 +18385,7 @@
         </is>
       </c>
       <c r="P260" t="inlineStr"/>
+      <c r="Q260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -18190,6 +18454,7 @@
         </is>
       </c>
       <c r="P261" t="inlineStr"/>
+      <c r="Q261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -18258,6 +18523,7 @@
         </is>
       </c>
       <c r="P262" t="inlineStr"/>
+      <c r="Q262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -18326,6 +18592,7 @@
         </is>
       </c>
       <c r="P263" t="inlineStr"/>
+      <c r="Q263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -18394,6 +18661,7 @@
         </is>
       </c>
       <c r="P264" t="inlineStr"/>
+      <c r="Q264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -18462,11 +18730,12 @@
         </is>
       </c>
       <c r="P265" t="inlineStr"/>
+      <c r="Q265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Nursing Education (Post Master'S) Graduate Certificate</t>
+          <t>Nursing Education (Post Master's) Graduate Certificate</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -18530,6 +18799,7 @@
         </is>
       </c>
       <c r="P266" t="inlineStr"/>
+      <c r="Q266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -18598,6 +18868,7 @@
         </is>
       </c>
       <c r="P267" t="inlineStr"/>
+      <c r="Q267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -18666,6 +18937,7 @@
         </is>
       </c>
       <c r="P268" t="inlineStr"/>
+      <c r="Q268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -18734,6 +19006,7 @@
         </is>
       </c>
       <c r="P269" t="inlineStr"/>
+      <c r="Q269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -18802,11 +19075,12 @@
         </is>
       </c>
       <c r="P270" t="inlineStr"/>
+      <c r="Q270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Pharmacy Entrepreneurship, LEADERSHIP &amp; management graduate certificate</t>
+          <t>Pharmacy Entrepreneurship, Leadership &amp; Management Graduate Certificate</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -18870,6 +19144,7 @@
         </is>
       </c>
       <c r="P271" t="inlineStr"/>
+      <c r="Q271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -18938,6 +19213,7 @@
         </is>
       </c>
       <c r="P272" t="inlineStr"/>
+      <c r="Q272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -19006,6 +19282,7 @@
         </is>
       </c>
       <c r="P273" t="inlineStr"/>
+      <c r="Q273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -19074,6 +19351,7 @@
         </is>
       </c>
       <c r="P274" t="inlineStr"/>
+      <c r="Q274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -19142,6 +19420,7 @@
         </is>
       </c>
       <c r="P275" t="inlineStr"/>
+      <c r="Q275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -19210,11 +19489,12 @@
         </is>
       </c>
       <c r="P276" t="inlineStr"/>
+      <c r="Q276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Psychiatric-Mental Health Nurse Practitioner (Post Master'S Or Dnp) Graduate Certificate</t>
+          <t>Psychiatric-Mental Health Nurse Practitioner (Post Master's Or Dnp) Graduate Certificate</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -19278,6 +19558,7 @@
         </is>
       </c>
       <c r="P277" t="inlineStr"/>
+      <c r="Q277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -19346,6 +19627,7 @@
         </is>
       </c>
       <c r="P278" t="inlineStr"/>
+      <c r="Q278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -19414,6 +19696,7 @@
         </is>
       </c>
       <c r="P279" t="inlineStr"/>
+      <c r="Q279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -19482,6 +19765,7 @@
         </is>
       </c>
       <c r="P280" t="inlineStr"/>
+      <c r="Q280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -19550,6 +19834,7 @@
         </is>
       </c>
       <c r="P281" t="inlineStr"/>
+      <c r="Q281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -19618,11 +19903,12 @@
         </is>
       </c>
       <c r="P282" t="inlineStr"/>
+      <c r="Q282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Scholarly Excellence, LEADERSHIP experiences,  &amp; collaborative training (s.e.l.e.c.t) graduate certificate</t>
+          <t>Scholarly Excellence, Leadership Experiences,  &amp; Collaborative Training (S.E.L.E.C.T) Graduate Certificate</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -19686,6 +19972,7 @@
         </is>
       </c>
       <c r="P283" t="inlineStr"/>
+      <c r="Q283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -19754,6 +20041,7 @@
         </is>
       </c>
       <c r="P284" t="inlineStr"/>
+      <c r="Q284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -19822,6 +20110,7 @@
         </is>
       </c>
       <c r="P285" t="inlineStr"/>
+      <c r="Q285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -19890,6 +20179,7 @@
         </is>
       </c>
       <c r="P286" t="inlineStr"/>
+      <c r="Q286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -19958,6 +20248,7 @@
         </is>
       </c>
       <c r="P287" t="inlineStr"/>
+      <c r="Q287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -20026,6 +20317,7 @@
         </is>
       </c>
       <c r="P288" t="inlineStr"/>
+      <c r="Q288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -20094,6 +20386,7 @@
         </is>
       </c>
       <c r="P289" t="inlineStr"/>
+      <c r="Q289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -20162,6 +20455,7 @@
         </is>
       </c>
       <c r="P290" t="inlineStr"/>
+      <c r="Q290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -20230,6 +20524,7 @@
         </is>
       </c>
       <c r="P291" t="inlineStr"/>
+      <c r="Q291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -20298,6 +20593,7 @@
         </is>
       </c>
       <c r="P292" t="inlineStr"/>
+      <c r="Q292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -20366,6 +20662,7 @@
         </is>
       </c>
       <c r="P293" t="inlineStr"/>
+      <c r="Q293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -20434,6 +20731,7 @@
         </is>
       </c>
       <c r="P294" t="inlineStr"/>
+      <c r="Q294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -20502,6 +20800,7 @@
         </is>
       </c>
       <c r="P295" t="inlineStr"/>
+      <c r="Q295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -20570,11 +20869,12 @@
         </is>
       </c>
       <c r="P296" t="inlineStr"/>
+      <c r="Q296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Teaching Of Digitally-Enhanced Middle Grades Mathematics Education Graduate Certificate</t>
+          <t>Teaching of Digitally-Enhanced Middle Grades Mathematics Education Graduate Certificate</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -20638,6 +20938,7 @@
         </is>
       </c>
       <c r="P297" t="inlineStr"/>
+      <c r="Q297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -20706,6 +21007,7 @@
         </is>
       </c>
       <c r="P298" t="inlineStr"/>
+      <c r="Q298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -20774,6 +21076,7 @@
         </is>
       </c>
       <c r="P299" t="inlineStr"/>
+      <c r="Q299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -20842,6 +21145,7 @@
         </is>
       </c>
       <c r="P300" t="inlineStr"/>
+      <c r="Q300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -20910,6 +21214,7 @@
         </is>
       </c>
       <c r="P301" t="inlineStr"/>
+      <c r="Q301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -20978,6 +21283,7 @@
         </is>
       </c>
       <c r="P302" t="inlineStr"/>
+      <c r="Q302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -21046,11 +21352,12 @@
         </is>
       </c>
       <c r="P303" t="inlineStr"/>
+      <c r="Q303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Water, HEALTH and sustainability graduate certificate</t>
+          <t>Water, Health and Sustainability Graduate Certificate</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -21114,6 +21421,7 @@
         </is>
       </c>
       <c r="P304" t="inlineStr"/>
+      <c r="Q304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -21182,11 +21490,12 @@
         </is>
       </c>
       <c r="P305" t="inlineStr"/>
+      <c r="Q305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Women'S, GENDER, and sexuality studies graduate certificate</t>
+          <t>Women's, Gender, and Sexuality Studies Graduate Certificate</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -21250,6 +21559,7 @@
         </is>
       </c>
       <c r="P306" t="inlineStr"/>
+      <c r="Q306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -21318,6 +21628,7 @@
         </is>
       </c>
       <c r="P307" t="inlineStr"/>
+      <c r="Q307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -21386,6 +21697,7 @@
         </is>
       </c>
       <c r="P308" t="inlineStr"/>
+      <c r="Q308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -21454,6 +21766,7 @@
         </is>
       </c>
       <c r="P309" t="inlineStr"/>
+      <c r="Q309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -21522,6 +21835,7 @@
         </is>
       </c>
       <c r="P310" t="inlineStr"/>
+      <c r="Q310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -21590,6 +21904,7 @@
         </is>
       </c>
       <c r="P311" t="inlineStr"/>
+      <c r="Q311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -21658,6 +21973,7 @@
         </is>
       </c>
       <c r="P312" t="inlineStr"/>
+      <c r="Q312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -21726,6 +22042,7 @@
         </is>
       </c>
       <c r="P313" t="inlineStr"/>
+      <c r="Q313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -21794,11 +22111,12 @@
         </is>
       </c>
       <c r="P314" t="inlineStr"/>
+      <c r="Q314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Language, SPEECH, and hearing sciences b.a.</t>
+          <t>Language, Speech, and Hearing Sciences B.A.</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -21862,6 +22180,7 @@
         </is>
       </c>
       <c r="P315" t="inlineStr"/>
+      <c r="Q315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -21930,6 +22249,7 @@
         </is>
       </c>
       <c r="P316" t="inlineStr"/>
+      <c r="Q316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -21998,11 +22318,12 @@
         </is>
       </c>
       <c r="P317" t="inlineStr"/>
+      <c r="Q317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Criminology B.A., WITH cybercrime concentration</t>
+          <t>Criminology B.A., with Cybercrime Concentration</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -22066,6 +22387,7 @@
         </is>
       </c>
       <c r="P318" t="inlineStr"/>
+      <c r="Q318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -22134,11 +22456,12 @@
         </is>
       </c>
       <c r="P319" t="inlineStr"/>
+      <c r="Q319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Behavioral Healthcare B.S., WITH applied behavior analysis concentration</t>
+          <t>Behavioral Healthcare B.S., with Applied Behavior Analysis Concentration</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -22202,11 +22525,12 @@
         </is>
       </c>
       <c r="P320" t="inlineStr"/>
+      <c r="Q320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Behavioral Healthcare B.S., WITH behavioral health across the lifespan concentration</t>
+          <t>Behavioral Healthcare B.S., with Behavioral Health Across The Lifespan Concentration</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -22270,11 +22594,12 @@
         </is>
       </c>
       <c r="P321" t="inlineStr"/>
+      <c r="Q321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Behavioral Healthcare B.S., WITH children's behavioral healthcare concentration</t>
+          <t>Behavioral Healthcare B.S., with Children's Behavioral Healthcare Concentration</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -22338,6 +22663,7 @@
         </is>
       </c>
       <c r="P322" t="inlineStr"/>
+      <c r="Q322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -22406,11 +22732,12 @@
         </is>
       </c>
       <c r="P323" t="inlineStr"/>
+      <c r="Q323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Children'S Behavioral Healthcare Minor</t>
+          <t>Children's Behavioral Healthcare Minor</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -22474,6 +22801,7 @@
         </is>
       </c>
       <c r="P324" t="inlineStr"/>
+      <c r="Q324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -22542,6 +22870,7 @@
         </is>
       </c>
       <c r="P325" t="inlineStr"/>
+      <c r="Q325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -22610,11 +22939,12 @@
         </is>
       </c>
       <c r="P326" t="inlineStr"/>
+      <c r="Q326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Early Childhood Education (Esol And Reading Endorsements) B.S.</t>
+          <t>Early Childhood Education (ESOL And Reading Endorsements) B.S.</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -22678,11 +23008,12 @@
         </is>
       </c>
       <c r="P327" t="inlineStr"/>
+      <c r="Q327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Education (Esol And Reading Endorsements) B.S.</t>
+          <t>Education (ESOL And Reading Endorsements) B.S.</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -22746,6 +23077,7 @@
         </is>
       </c>
       <c r="P328" t="inlineStr"/>
+      <c r="Q328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -22814,11 +23146,12 @@
         </is>
       </c>
       <c r="P329" t="inlineStr"/>
+      <c r="Q329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Elementary Education (Esol And Reading Endorsements) B.S.</t>
+          <t>Elementary Education (ESOL And Reading Endorsements) B.S.</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -22882,11 +23215,12 @@
         </is>
       </c>
       <c r="P330" t="inlineStr"/>
+      <c r="Q330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>English Education (Esol And Reading Endorsements) B.S.</t>
+          <t>English Education (ESOL And Reading Endorsements) B.S.</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -22950,6 +23284,7 @@
         </is>
       </c>
       <c r="P331" t="inlineStr"/>
+      <c r="Q331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -23018,11 +23353,12 @@
         </is>
       </c>
       <c r="P332" t="inlineStr"/>
+      <c r="Q332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Mathematics Education B.S., WITH middle school mathematics concentration</t>
+          <t>Mathematics Education B.S., with Middle School Mathematics Concentration</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -23086,11 +23422,12 @@
         </is>
       </c>
       <c r="P333" t="inlineStr"/>
+      <c r="Q333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Science Education B.S., WITH biology education concentration</t>
+          <t>Science Education B.S., with Biology Education Concentration</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -23154,11 +23491,12 @@
         </is>
       </c>
       <c r="P334" t="inlineStr"/>
+      <c r="Q334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Science Education B.S., WITH chemistry education concentration</t>
+          <t>Science Education B.S., with Chemistry Education Concentration</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -23222,11 +23560,12 @@
         </is>
       </c>
       <c r="P335" t="inlineStr"/>
+      <c r="Q335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Science Education B.S., WITH physics education concentration</t>
+          <t>Science Education B.S., with Physics Education Concentration</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -23290,6 +23629,7 @@
         </is>
       </c>
       <c r="P336" t="inlineStr"/>
+      <c r="Q336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -23358,6 +23698,7 @@
         </is>
       </c>
       <c r="P337" t="inlineStr"/>
+      <c r="Q337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -23426,6 +23767,7 @@
         </is>
       </c>
       <c r="P338" t="inlineStr"/>
+      <c r="Q338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -23494,6 +23836,7 @@
         </is>
       </c>
       <c r="P339" t="inlineStr"/>
+      <c r="Q339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -23562,6 +23905,7 @@
         </is>
       </c>
       <c r="P340" t="inlineStr"/>
+      <c r="Q340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -23630,6 +23974,7 @@
         </is>
       </c>
       <c r="P341" t="inlineStr"/>
+      <c r="Q341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -23698,11 +24043,12 @@
         </is>
       </c>
       <c r="P342" t="inlineStr"/>
+      <c r="Q342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Exceptional Student Education (Esol And Reading Endorsements) B.S.</t>
+          <t>Exceptional Student Education (ESOL And Reading Endorsements) B.S.</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -23766,6 +24112,7 @@
         </is>
       </c>
       <c r="P343" t="inlineStr"/>
+      <c r="Q343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -23834,6 +24181,7 @@
         </is>
       </c>
       <c r="P344" t="inlineStr"/>
+      <c r="Q344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -23902,6 +24250,7 @@
         </is>
       </c>
       <c r="P345" t="inlineStr"/>
+      <c r="Q345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -23970,11 +24319,12 @@
         </is>
       </c>
       <c r="P346" t="inlineStr"/>
+      <c r="Q346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Science Of Physical Activity Minor</t>
+          <t>Science of Physical Activity Minor</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -24038,6 +24388,7 @@
         </is>
       </c>
       <c r="P347" t="inlineStr"/>
+      <c r="Q347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -24106,6 +24457,7 @@
         </is>
       </c>
       <c r="P348" t="inlineStr"/>
+      <c r="Q348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -24174,6 +24526,7 @@
         </is>
       </c>
       <c r="P349" t="inlineStr"/>
+      <c r="Q349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -24242,6 +24595,7 @@
         </is>
       </c>
       <c r="P350" t="inlineStr"/>
+      <c r="Q350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -24310,6 +24664,7 @@
         </is>
       </c>
       <c r="P351" t="inlineStr"/>
+      <c r="Q351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -24378,6 +24733,7 @@
         </is>
       </c>
       <c r="P352" t="inlineStr"/>
+      <c r="Q352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -24446,6 +24802,7 @@
         </is>
       </c>
       <c r="P353" t="inlineStr"/>
+      <c r="Q353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -24514,6 +24871,7 @@
         </is>
       </c>
       <c r="P354" t="inlineStr"/>
+      <c r="Q354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -24582,6 +24940,7 @@
         </is>
       </c>
       <c r="P355" t="inlineStr"/>
+      <c r="Q355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -24650,6 +25009,7 @@
         </is>
       </c>
       <c r="P356" t="inlineStr"/>
+      <c r="Q356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -24718,6 +25078,7 @@
         </is>
       </c>
       <c r="P357" t="inlineStr"/>
+      <c r="Q357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -24786,6 +25147,7 @@
         </is>
       </c>
       <c r="P358" t="inlineStr"/>
+      <c r="Q358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -24854,6 +25216,7 @@
         </is>
       </c>
       <c r="P359" t="inlineStr"/>
+      <c r="Q359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -24922,6 +25285,7 @@
         </is>
       </c>
       <c r="P360" t="inlineStr"/>
+      <c r="Q360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -24990,6 +25354,7 @@
         </is>
       </c>
       <c r="P361" t="inlineStr"/>
+      <c r="Q361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -25056,11 +25421,12 @@
         </is>
       </c>
       <c r="P362" t="inlineStr"/>
+      <c r="Q362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Nursing: Accelerated Second Bachelor'S Degree Pathway Bsn.</t>
+          <t>Nursing: Accelerated Second Bachelor's Degree Pathway BSN.</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -25124,11 +25490,12 @@
         </is>
       </c>
       <c r="P363" t="inlineStr"/>
+      <c r="Q363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Nursing: Upper Division Pathway Bsn.</t>
+          <t>Nursing: Upper Division Pathway BSN.</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -25192,11 +25559,12 @@
         </is>
       </c>
       <c r="P364" t="inlineStr"/>
+      <c r="Q364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Nursing: V -Care Bsn.</t>
+          <t>Nursing: V -Care BSN.</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -25260,11 +25628,12 @@
         </is>
       </c>
       <c r="P365" t="inlineStr"/>
+      <c r="Q365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH aging health studies and health care administration concentration</t>
+          <t>Health Sciences B.S., with Aging Health Studies and Health Care Administration Concentration</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -25328,11 +25697,12 @@
         </is>
       </c>
       <c r="P366" t="inlineStr"/>
+      <c r="Q366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH aging health studies and health information technology concentration</t>
+          <t>Health Sciences B.S., with Aging Health Studies and Health Information Technology Concentration</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -25396,11 +25766,12 @@
         </is>
       </c>
       <c r="P367" t="inlineStr"/>
+      <c r="Q367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH aging health studies concentration</t>
+          <t>Health Sciences B.S., with Aging Health Studies Concentration</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -25464,11 +25835,12 @@
         </is>
       </c>
       <c r="P368" t="inlineStr"/>
+      <c r="Q368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH biological health sciences and aging health studies concentration</t>
+          <t>Health Sciences B.S., with Biological Health Sciences and Aging Health Studies Concentration</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -25532,11 +25904,12 @@
         </is>
       </c>
       <c r="P369" t="inlineStr"/>
+      <c r="Q369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH biological health sciences and health care administration concentration</t>
+          <t>Health Sciences B.S., with Biological Health Sciences and Health Care Administration Concentration</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -25600,11 +25973,12 @@
         </is>
       </c>
       <c r="P370" t="inlineStr"/>
+      <c r="Q370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH biological health sciences and health information technology concentration</t>
+          <t>Health Sciences B.S., with Biological Health Sciences and Health Information Technology Concentration</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -25668,11 +26042,12 @@
         </is>
       </c>
       <c r="P371" t="inlineStr"/>
+      <c r="Q371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH biological health sciences and social and behavioral health sciences concentration</t>
+          <t>Health Sciences B.S., with Biological Health Sciences and Social and Behavioral Health Sciences Concentration</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -25736,11 +26111,12 @@
         </is>
       </c>
       <c r="P372" t="inlineStr"/>
+      <c r="Q372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH biological health sciences concentration</t>
+          <t>Health Sciences B.S., with Biological Health Sciences Concentration</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -25804,11 +26180,12 @@
         </is>
       </c>
       <c r="P373" t="inlineStr"/>
+      <c r="Q373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH health care administration and health information technology concentration</t>
+          <t>Health Sciences B.S., with Health Care Administration and Health Information Technology Concentration</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -25872,11 +26249,12 @@
         </is>
       </c>
       <c r="P374" t="inlineStr"/>
+      <c r="Q374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH health care administration concentration</t>
+          <t>Health Sciences B.S., with Health Care Administration Concentration</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -25940,11 +26318,12 @@
         </is>
       </c>
       <c r="P375" t="inlineStr"/>
+      <c r="Q375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH health information technology concentration</t>
+          <t>Health Sciences B.S., with Health Information Technology Concentration</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -26008,11 +26387,12 @@
         </is>
       </c>
       <c r="P376" t="inlineStr"/>
+      <c r="Q376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH nutrition science concentration</t>
+          <t>Health Sciences B.S., with Nutrition Science Concentration</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -26076,11 +26456,12 @@
         </is>
       </c>
       <c r="P377" t="inlineStr"/>
+      <c r="Q377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH social and behavioral health sciences and aging health studies concentration</t>
+          <t>Health Sciences B.S., with Social and Behavioral Health Sciences and Aging Health Studies Concentration</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -26144,11 +26525,12 @@
         </is>
       </c>
       <c r="P378" t="inlineStr"/>
+      <c r="Q378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH social and behavioral health sciences and health care administration concentration</t>
+          <t>Health Sciences B.S., with Social and Behavioral Health Sciences and Health Care Administration Concentration</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -26212,11 +26594,12 @@
         </is>
       </c>
       <c r="P379" t="inlineStr"/>
+      <c r="Q379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH social and behavioral health sciences and health information technology concentration</t>
+          <t>Health Sciences B.S., with Social and Behavioral Health Sciences and Health Information Technology Concentration</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -26280,11 +26663,12 @@
         </is>
       </c>
       <c r="P380" t="inlineStr"/>
+      <c r="Q380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Health Sciences B.S., WITH social and behavioral health sciences concentration</t>
+          <t>Health Sciences B.S., with Social and Behavioral Health Sciences Concentration</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -26348,6 +26732,7 @@
         </is>
       </c>
       <c r="P381" t="inlineStr"/>
+      <c r="Q381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -26416,6 +26801,7 @@
         </is>
       </c>
       <c r="P382" t="inlineStr"/>
+      <c r="Q382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -26484,6 +26870,7 @@
         </is>
       </c>
       <c r="P383" t="inlineStr"/>
+      <c r="Q383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -26552,6 +26939,7 @@
         </is>
       </c>
       <c r="P384" t="inlineStr"/>
+      <c r="Q384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -26620,6 +27008,7 @@
         </is>
       </c>
       <c r="P385" t="inlineStr"/>
+      <c r="Q385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -26688,6 +27077,7 @@
         </is>
       </c>
       <c r="P386" t="inlineStr"/>
+      <c r="Q386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -26756,6 +27146,7 @@
         </is>
       </c>
       <c r="P387" t="inlineStr"/>
+      <c r="Q387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -26824,11 +27215,12 @@
         </is>
       </c>
       <c r="P388" t="inlineStr"/>
+      <c r="Q388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Graphic Arts B.F.A, WITH graphic design concentration</t>
+          <t>Graphic Arts B.F.A, with Graphic Design Concentration</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -26892,11 +27284,12 @@
         </is>
       </c>
       <c r="P389" t="inlineStr"/>
+      <c r="Q389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Graphic Arts B.F.A, WITH illustration concentration</t>
+          <t>Graphic Arts B.F.A, with Illustration Concentration</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -26960,6 +27353,7 @@
         </is>
       </c>
       <c r="P390" t="inlineStr"/>
+      <c r="Q390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -27028,11 +27422,12 @@
         </is>
       </c>
       <c r="P391" t="inlineStr"/>
+      <c r="Q391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Studio Art B.F.A., WITH animation and digital modeling concentration</t>
+          <t>Studio Art B.F.A., with Animation and Digital Modeling Concentration</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -27096,6 +27491,7 @@
         </is>
       </c>
       <c r="P392" t="inlineStr"/>
+      <c r="Q392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -27164,6 +27560,7 @@
         </is>
       </c>
       <c r="P393" t="inlineStr"/>
+      <c r="Q393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -27230,6 +27627,7 @@
         </is>
       </c>
       <c r="P394" t="inlineStr"/>
+      <c r="Q394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -27298,6 +27696,7 @@
         </is>
       </c>
       <c r="P395" t="inlineStr"/>
+      <c r="Q395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -27366,6 +27765,7 @@
         </is>
       </c>
       <c r="P396" t="inlineStr"/>
+      <c r="Q396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -27434,11 +27834,12 @@
         </is>
       </c>
       <c r="P397" t="inlineStr"/>
+      <c r="Q397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Music Performance B.M., WITH acoustic &amp; electronic composition concentration</t>
+          <t>Music Performance B.M., with Acoustic &amp; Electronic Composition Concentration</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -27502,11 +27903,12 @@
         </is>
       </c>
       <c r="P398" t="inlineStr"/>
+      <c r="Q398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Music Performance B.M., WITH contemporary commercial music concentration</t>
+          <t>Music Performance B.M., with Contemporary Commercial Music Concentration</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -27570,11 +27972,12 @@
         </is>
       </c>
       <c r="P399" t="inlineStr"/>
+      <c r="Q399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Music Performance B.M., WITH jazz studies concentration</t>
+          <t>Music Performance B.M., with Jazz Studies Concentration</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -27638,11 +28041,12 @@
         </is>
       </c>
       <c r="P400" t="inlineStr"/>
+      <c r="Q400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Music Performance B.M., WITH performance concentration</t>
+          <t>Music Performance B.M., with Performance Concentration</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -27706,11 +28110,12 @@
         </is>
       </c>
       <c r="P401" t="inlineStr"/>
+      <c r="Q401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Dance B.A., WITH dance studies concentration</t>
+          <t>Dance B.A., with Dance Studies Concentration</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -27774,11 +28179,12 @@
         </is>
       </c>
       <c r="P402" t="inlineStr"/>
+      <c r="Q402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Dance B.F.A., WITH ballet concentration</t>
+          <t>Dance B.F.A., with Ballet Concentration</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -27842,11 +28248,12 @@
         </is>
       </c>
       <c r="P403" t="inlineStr"/>
+      <c r="Q403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Dance B.F.A., WITH modern dance concentration</t>
+          <t>Dance B.F.A., with Modern Dance Concentration</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -27910,6 +28317,7 @@
         </is>
       </c>
       <c r="P404" t="inlineStr"/>
+      <c r="Q404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -27978,11 +28386,12 @@
         </is>
       </c>
       <c r="P405" t="inlineStr"/>
+      <c r="Q405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Theatre B.A., WITH design and technology concentration</t>
+          <t>Theatre B.A., with Design and Technology Concentration</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -28046,11 +28455,12 @@
         </is>
       </c>
       <c r="P406" t="inlineStr"/>
+      <c r="Q406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Theatre B.A., WITH performance concentration</t>
+          <t>Theatre B.A., with Performance Concentration</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -28114,11 +28524,12 @@
         </is>
       </c>
       <c r="P407" t="inlineStr"/>
+      <c r="Q407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Theatre B.A., WITH theatre arts concentration</t>
+          <t>Theatre B.A., with Theatre Arts Concentration</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -28182,6 +28593,7 @@
         </is>
       </c>
       <c r="P408" t="inlineStr"/>
+      <c r="Q408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -28250,6 +28662,7 @@
         </is>
       </c>
       <c r="P409" t="inlineStr"/>
+      <c r="Q409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -28318,6 +28731,7 @@
         </is>
       </c>
       <c r="P410" t="inlineStr"/>
+      <c r="Q410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -28386,6 +28800,7 @@
         </is>
       </c>
       <c r="P411" t="inlineStr"/>
+      <c r="Q411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -28454,6 +28869,7 @@
         </is>
       </c>
       <c r="P412" t="inlineStr"/>
+      <c r="Q412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -28522,6 +28938,7 @@
         </is>
       </c>
       <c r="P413" t="inlineStr"/>
+      <c r="Q413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -28590,6 +29007,7 @@
         </is>
       </c>
       <c r="P414" t="inlineStr"/>
+      <c r="Q414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -28658,6 +29076,7 @@
         </is>
       </c>
       <c r="P415" t="inlineStr"/>
+      <c r="Q415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -28726,11 +29145,12 @@
         </is>
       </c>
       <c r="P416" t="inlineStr"/>
+      <c r="Q416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Finance B.S., WITH corporate finance concentration</t>
+          <t>Finance B.S., with Corporate Finance Concentration</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -28794,11 +29214,12 @@
         </is>
       </c>
       <c r="P417" t="inlineStr"/>
+      <c r="Q417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Finance B.S., WITH fintech concentration</t>
+          <t>Finance B.S., with Fintech Concentration</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -28862,11 +29283,12 @@
         </is>
       </c>
       <c r="P418" t="inlineStr"/>
+      <c r="Q418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Finance B.S., WITH investment analysis concentration</t>
+          <t>Finance B.S., with Investment Analysis Concentration</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -28930,11 +29352,12 @@
         </is>
       </c>
       <c r="P419" t="inlineStr"/>
+      <c r="Q419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Finance B.S., WITH real estate concentration</t>
+          <t>Finance B.S., with Real Estate Concentration</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -28998,6 +29421,7 @@
         </is>
       </c>
       <c r="P420" t="inlineStr"/>
+      <c r="Q420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -29066,6 +29490,7 @@
         </is>
       </c>
       <c r="P421" t="inlineStr"/>
+      <c r="Q421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -29134,6 +29559,7 @@
         </is>
       </c>
       <c r="P422" t="inlineStr"/>
+      <c r="Q422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -29202,6 +29628,7 @@
         </is>
       </c>
       <c r="P423" t="inlineStr"/>
+      <c r="Q423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -29270,6 +29697,7 @@
         </is>
       </c>
       <c r="P424" t="inlineStr"/>
+      <c r="Q424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -29338,6 +29766,7 @@
         </is>
       </c>
       <c r="P425" t="inlineStr"/>
+      <c r="Q425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -29406,6 +29835,7 @@
         </is>
       </c>
       <c r="P426" t="inlineStr"/>
+      <c r="Q426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -29474,6 +29904,7 @@
         </is>
       </c>
       <c r="P427" t="inlineStr"/>
+      <c r="Q427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -29542,6 +29973,7 @@
         </is>
       </c>
       <c r="P428" t="inlineStr"/>
+      <c r="Q428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -29610,6 +30042,7 @@
         </is>
       </c>
       <c r="P429" t="inlineStr"/>
+      <c r="Q429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -29678,6 +30111,7 @@
         </is>
       </c>
       <c r="P430" t="inlineStr"/>
+      <c r="Q430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -29746,11 +30180,12 @@
         </is>
       </c>
       <c r="P431" t="inlineStr"/>
+      <c r="Q431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Business Analytics And Information Systems B.S., WITH cybersecurity concentration</t>
+          <t>Business Analytics And Information Systems B.S., with Cybersecurity Concentration</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -29814,6 +30249,7 @@
         </is>
       </c>
       <c r="P432" t="inlineStr"/>
+      <c r="Q432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -29882,6 +30318,7 @@
         </is>
       </c>
       <c r="P433" t="inlineStr"/>
+      <c r="Q433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -29950,11 +30387,12 @@
         </is>
       </c>
       <c r="P434" t="inlineStr"/>
+      <c r="Q434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Management B.S., WITH aging services management concentration</t>
+          <t>Management B.S., with Aging Services Management Concentration</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -30018,11 +30456,12 @@
         </is>
       </c>
       <c r="P435" t="inlineStr"/>
+      <c r="Q435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Management B.S., WITH human resources management concentration</t>
+          <t>Management B.S., with Human Resources Management Concentration</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -30086,11 +30525,12 @@
         </is>
       </c>
       <c r="P436" t="inlineStr"/>
+      <c r="Q436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Management B.S., WITH project management concentration</t>
+          <t>Management B.S., with Project Management Concentration</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -30154,6 +30594,7 @@
         </is>
       </c>
       <c r="P437" t="inlineStr"/>
+      <c r="Q437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -30222,6 +30663,7 @@
         </is>
       </c>
       <c r="P438" t="inlineStr"/>
+      <c r="Q438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -30290,6 +30732,7 @@
         </is>
       </c>
       <c r="P439" t="inlineStr"/>
+      <c r="Q439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -30358,6 +30801,7 @@
         </is>
       </c>
       <c r="P440" t="inlineStr"/>
+      <c r="Q440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -30426,6 +30870,7 @@
         </is>
       </c>
       <c r="P441" t="inlineStr"/>
+      <c r="Q441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -30494,6 +30939,7 @@
         </is>
       </c>
       <c r="P442" t="inlineStr"/>
+      <c r="Q442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -30562,11 +31008,12 @@
         </is>
       </c>
       <c r="P443" t="inlineStr"/>
+      <c r="Q443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Global Business B.A., WITH business analytics and information systems concentration</t>
+          <t>Global Business B.A., with Business Analytics and Information Systems Concentration</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -30630,11 +31077,12 @@
         </is>
       </c>
       <c r="P444" t="inlineStr"/>
+      <c r="Q444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Global Business B.A., WITH finance concentration</t>
+          <t>Global Business B.A., with Finance Concentration</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -30698,11 +31146,12 @@
         </is>
       </c>
       <c r="P445" t="inlineStr"/>
+      <c r="Q445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Global Business B.A., WITH management concentration</t>
+          <t>Global Business B.A., with Management Concentration</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -30766,11 +31215,12 @@
         </is>
       </c>
       <c r="P446" t="inlineStr"/>
+      <c r="Q446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Global Business B.A., WITH marketing concentration</t>
+          <t>Global Business B.A., with Marketing Concentration</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -30834,6 +31284,7 @@
         </is>
       </c>
       <c r="P447" t="inlineStr"/>
+      <c r="Q447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -30902,11 +31353,12 @@
         </is>
       </c>
       <c r="P448" t="inlineStr"/>
+      <c r="Q448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Marketing B.S., WITH digital marketing concentration</t>
+          <t>Marketing B.S., with Digital Marketing Concentration</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -30970,11 +31422,12 @@
         </is>
       </c>
       <c r="P449" t="inlineStr"/>
+      <c r="Q449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Marketing B.S., WITH entrepreneurship concentration</t>
+          <t>Marketing B.S., with Entrepreneurship Concentration</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -31038,11 +31491,12 @@
         </is>
       </c>
       <c r="P450" t="inlineStr"/>
+      <c r="Q450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Marketing B.S., WITH sales concentration</t>
+          <t>Marketing B.S., with Sales Concentration</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -31106,11 +31560,12 @@
         </is>
       </c>
       <c r="P451" t="inlineStr"/>
+      <c r="Q451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Marketing B.S., WITH sport and entertainment management concentration</t>
+          <t>Marketing B.S., with Sport and Entertainment Management Concentration</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -31174,6 +31629,7 @@
         </is>
       </c>
       <c r="P452" t="inlineStr"/>
+      <c r="Q452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -31242,6 +31698,7 @@
         </is>
       </c>
       <c r="P453" t="inlineStr"/>
+      <c r="Q453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -31310,6 +31767,7 @@
         </is>
       </c>
       <c r="P454" t="inlineStr"/>
+      <c r="Q454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -31378,6 +31836,7 @@
         </is>
       </c>
       <c r="P455" t="inlineStr"/>
+      <c r="Q455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -31446,6 +31905,7 @@
         </is>
       </c>
       <c r="P456" t="inlineStr"/>
+      <c r="Q456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -31514,6 +31974,7 @@
         </is>
       </c>
       <c r="P457" t="inlineStr"/>
+      <c r="Q457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -31582,6 +32043,7 @@
         </is>
       </c>
       <c r="P458" t="inlineStr"/>
+      <c r="Q458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -31650,6 +32112,7 @@
         </is>
       </c>
       <c r="P459" t="inlineStr"/>
+      <c r="Q459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -31718,6 +32181,7 @@
         </is>
       </c>
       <c r="P460" t="inlineStr"/>
+      <c r="Q460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -31786,6 +32250,7 @@
         </is>
       </c>
       <c r="P461" t="inlineStr"/>
+      <c r="Q461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -31854,6 +32319,7 @@
         </is>
       </c>
       <c r="P462" t="inlineStr"/>
+      <c r="Q462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -31922,11 +32388,12 @@
         </is>
       </c>
       <c r="P463" t="inlineStr"/>
+      <c r="Q463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Applied Science B.S.A.S., WITH aging sciences concentration</t>
+          <t>Applied Science B.S.A.S., with Aging Sciences Concentration</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -31990,11 +32457,12 @@
         </is>
       </c>
       <c r="P464" t="inlineStr"/>
+      <c r="Q464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Applied Science B.S.A.S., WITH applied behavior analysis concentration</t>
+          <t>Applied Science B.S.A.S., with Applied Behavior Analysis Concentration</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -32058,11 +32526,12 @@
         </is>
       </c>
       <c r="P465" t="inlineStr"/>
+      <c r="Q465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Applied Science B.S.A.S., WITH behavioral healthcare concentration</t>
+          <t>Applied Science B.S.A.S., with Behavioral Healthcare Concentration</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -32126,11 +32595,12 @@
         </is>
       </c>
       <c r="P466" t="inlineStr"/>
+      <c r="Q466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Applied Science B.S.A.S., WITH criminal justice concentration</t>
+          <t>Applied Science B.S.A.S., with Criminal Justice Concentration</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -32194,11 +32664,12 @@
         </is>
       </c>
       <c r="P467" t="inlineStr"/>
+      <c r="Q467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Applied Science B.S.A.S., WITH environmental policy concentration</t>
+          <t>Applied Science B.S.A.S., with Environmental Policy Concentration</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -32262,11 +32733,12 @@
         </is>
       </c>
       <c r="P468" t="inlineStr"/>
+      <c r="Q468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Applied Science B.S.A.S., WITH hospitality management concentration</t>
+          <t>Applied Science B.S.A.S., with Hospitality Management Concentration</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -32330,11 +32802,12 @@
         </is>
       </c>
       <c r="P469" t="inlineStr"/>
+      <c r="Q469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Applied Science B.S.A.S., WITH information studies: information architecture concentration</t>
+          <t>Applied Science B.S.A.S., with Information Studies: Information Architecture Concentration</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -32398,11 +32871,12 @@
         </is>
       </c>
       <c r="P470" t="inlineStr"/>
+      <c r="Q470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Applied Science B.S.A.S., WITH leadership studies concentration</t>
+          <t>Applied Science B.S.A.S., with Leadership Studies Concentration</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -32466,11 +32940,12 @@
         </is>
       </c>
       <c r="P471" t="inlineStr"/>
+      <c r="Q471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Applied Science B.S.A.S., WITH public health concentration</t>
+          <t>Applied Science B.S.A.S., with Public Health Concentration</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -32534,11 +33009,12 @@
         </is>
       </c>
       <c r="P472" t="inlineStr"/>
+      <c r="Q472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Applied Science B.S.A.S., WITH public service and leadership concentration</t>
+          <t>Applied Science B.S.A.S., with Public Service and Leadership Concentration</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -32602,11 +33078,12 @@
         </is>
       </c>
       <c r="P473" t="inlineStr"/>
+      <c r="Q473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Applied Science B.S.A.S., WITH urban studies concentration</t>
+          <t>Applied Science B.S.A.S., with Urban Studies Concentration</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -32670,11 +33147,12 @@
         </is>
       </c>
       <c r="P474" t="inlineStr"/>
+      <c r="Q474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>General Studies B.G.S., WITH applied behavior analysis concentration</t>
+          <t>General Studies B.G.S., with Applied Behavior Analysis Concentration</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -32738,11 +33216,12 @@
         </is>
       </c>
       <c r="P475" t="inlineStr"/>
+      <c r="Q475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>General Studies B.G.S., WITH behavioral healthcare concentration</t>
+          <t>General Studies B.G.S., with Behavioral Healthcare Concentration</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -32806,11 +33285,12 @@
         </is>
       </c>
       <c r="P476" t="inlineStr"/>
+      <c r="Q476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>General Studies B.G.S., WITH business concentration</t>
+          <t>General Studies B.G.S., with Business Concentration</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -32874,11 +33354,12 @@
         </is>
       </c>
       <c r="P477" t="inlineStr"/>
+      <c r="Q477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>General Studies B.G.S., WITH criminal justice concentration</t>
+          <t>General Studies B.G.S., with Criminal Justice Concentration</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -32942,11 +33423,12 @@
         </is>
       </c>
       <c r="P478" t="inlineStr"/>
+      <c r="Q478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>General Studies B.G.S., WITH environmental policy concentration</t>
+          <t>General Studies B.G.S., with Environmental Policy Concentration</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -33010,11 +33492,12 @@
         </is>
       </c>
       <c r="P479" t="inlineStr"/>
+      <c r="Q479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>General Studies B.G.S., WITH hospitality management concentration</t>
+          <t>General Studies B.G.S., with Hospitality Management Concentration</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -33078,11 +33561,12 @@
         </is>
       </c>
       <c r="P480" t="inlineStr"/>
+      <c r="Q480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>General Studies B.G.S., WITH information studies: information architecture concentration</t>
+          <t>General Studies B.G.S., with Information Studies: Information Architecture Concentration</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -33146,11 +33630,12 @@
         </is>
       </c>
       <c r="P481" t="inlineStr"/>
+      <c r="Q481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>General Studies B.G.S., WITH leadership studies concentration</t>
+          <t>General Studies B.G.S., with Leadership Studies Concentration</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -33214,11 +33699,12 @@
         </is>
       </c>
       <c r="P482" t="inlineStr"/>
+      <c r="Q482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>General Studies B.G.S., WITH public health concentration</t>
+          <t>General Studies B.G.S., with Public Health Concentration</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -33282,11 +33768,12 @@
         </is>
       </c>
       <c r="P483" t="inlineStr"/>
+      <c r="Q483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>General Studies B.G.S., WITH public service and leadership concentration</t>
+          <t>General Studies B.G.S., with Public Service and Leadership Concentration</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -33350,11 +33837,12 @@
         </is>
       </c>
       <c r="P484" t="inlineStr"/>
+      <c r="Q484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>General Studies B.G.S., WITH urban studies concentration</t>
+          <t>General Studies B.G.S., with Urban Studies Concentration</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -33418,11 +33906,12 @@
         </is>
       </c>
       <c r="P485" t="inlineStr"/>
+      <c r="Q485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>General Studies B.G.S., WITH Women's,  gender,  and sexuality studies concentration</t>
+          <t>General Studies B.G.S., with Women's, Gender,  and Sexuality Studies Concentration</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -33486,11 +33975,12 @@
         </is>
       </c>
       <c r="P486" t="inlineStr"/>
+      <c r="Q486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Aerospace Studies Minor -  Air Force Rotc</t>
+          <t>Aerospace Studies Minor -  Air Force ROTC</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -33554,6 +34044,7 @@
         </is>
       </c>
       <c r="P487" t="inlineStr"/>
+      <c r="Q487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -33622,11 +34113,12 @@
         </is>
       </c>
       <c r="P488" t="inlineStr"/>
+      <c r="Q488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Military Science And Leadership Minor -  Army Rotc</t>
+          <t>Military Science And Leadership Minor -  Army ROTC</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -33690,11 +34182,12 @@
         </is>
       </c>
       <c r="P489" t="inlineStr"/>
+      <c r="Q489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Naval Science And Leadership Minor -  Naval Rotc (Marine Option)</t>
+          <t>Naval Science And Leadership Minor -  Naval ROTC (Marine Option)</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -33758,11 +34251,12 @@
         </is>
       </c>
       <c r="P490" t="inlineStr"/>
+      <c r="Q490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Naval Science And Leadership Minor -  Naval Rotc (Navy Option)</t>
+          <t>Naval Science And Leadership Minor -  Naval ROTC (Navy Option)</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -33826,6 +34320,7 @@
         </is>
       </c>
       <c r="P491" t="inlineStr"/>
+      <c r="Q491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -33894,6 +34389,7 @@
         </is>
       </c>
       <c r="P492" t="inlineStr"/>
+      <c r="Q492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -33962,11 +34458,12 @@
         </is>
       </c>
       <c r="P493" t="inlineStr"/>
+      <c r="Q493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Integrated Public Relations And Advertising B.S., WITH advertising concentration</t>
+          <t>Integrated Public Relations And Advertising B.S., with Advertising Concentration</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -34030,11 +34527,12 @@
         </is>
       </c>
       <c r="P494" t="inlineStr"/>
+      <c r="Q494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Integrated Public Relations And Advertising B.S., WITH public relations concentration</t>
+          <t>Integrated Public Relations And Advertising B.S., with Public Relations Concentration</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -34098,11 +34596,12 @@
         </is>
       </c>
       <c r="P495" t="inlineStr"/>
+      <c r="Q495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Mass Communications B.A., WITH news and content creation concentration</t>
+          <t>Mass Communications B.A., with News and Content Creation Concentration</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -34166,11 +34665,12 @@
         </is>
       </c>
       <c r="P496" t="inlineStr"/>
+      <c r="Q496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Mass Communications B.A., WITH video and documentary production concentration</t>
+          <t>Mass Communications B.A., with Video and Documentary Production Concentration</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -34234,6 +34734,7 @@
         </is>
       </c>
       <c r="P497" t="inlineStr"/>
+      <c r="Q497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -34302,6 +34803,7 @@
         </is>
       </c>
       <c r="P498" t="inlineStr"/>
+      <c r="Q498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -34370,6 +34872,7 @@
         </is>
       </c>
       <c r="P499" t="inlineStr"/>
+      <c r="Q499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -34438,6 +34941,7 @@
         </is>
       </c>
       <c r="P500" t="inlineStr"/>
+      <c r="Q500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -34506,6 +35010,7 @@
         </is>
       </c>
       <c r="P501" t="inlineStr"/>
+      <c r="Q501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -34574,6 +35079,7 @@
         </is>
       </c>
       <c r="P502" t="inlineStr"/>
+      <c r="Q502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -34642,6 +35148,7 @@
         </is>
       </c>
       <c r="P503" t="inlineStr"/>
+      <c r="Q503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -34710,6 +35217,7 @@
         </is>
       </c>
       <c r="P504" t="inlineStr"/>
+      <c r="Q504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -34778,6 +35286,7 @@
         </is>
       </c>
       <c r="P505" t="inlineStr"/>
+      <c r="Q505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -34846,11 +35355,12 @@
         </is>
       </c>
       <c r="P506" t="inlineStr"/>
+      <c r="Q506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Chemistry B.A., WITH biochemistry/biotechnology concentration</t>
+          <t>Chemistry B.A., with Biochemistry/Biotechnology Concentration</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -34914,6 +35424,7 @@
         </is>
       </c>
       <c r="P507" t="inlineStr"/>
+      <c r="Q507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -34982,6 +35493,7 @@
         </is>
       </c>
       <c r="P508" t="inlineStr"/>
+      <c r="Q508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -35050,6 +35562,7 @@
         </is>
       </c>
       <c r="P509" t="inlineStr"/>
+      <c r="Q509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -35118,6 +35631,7 @@
         </is>
       </c>
       <c r="P510" t="inlineStr"/>
+      <c r="Q510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -35186,6 +35700,7 @@
         </is>
       </c>
       <c r="P511" t="inlineStr"/>
+      <c r="Q511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -35254,6 +35769,7 @@
         </is>
       </c>
       <c r="P512" t="inlineStr"/>
+      <c r="Q512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -35322,6 +35838,7 @@
         </is>
       </c>
       <c r="P513" t="inlineStr"/>
+      <c r="Q513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -35390,6 +35907,7 @@
         </is>
       </c>
       <c r="P514" t="inlineStr"/>
+      <c r="Q514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -35458,6 +35976,7 @@
         </is>
       </c>
       <c r="P515" t="inlineStr"/>
+      <c r="Q515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -35526,11 +36045,12 @@
         </is>
       </c>
       <c r="P516" t="inlineStr"/>
+      <c r="Q516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>English B.A., WITH creative writing concentration</t>
+          <t>English B.A., with Creative Writing Concentration</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -35594,6 +36114,7 @@
         </is>
       </c>
       <c r="P517" t="inlineStr"/>
+      <c r="Q517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -35662,6 +36183,7 @@
         </is>
       </c>
       <c r="P518" t="inlineStr"/>
+      <c r="Q518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -35730,6 +36252,7 @@
         </is>
       </c>
       <c r="P519" t="inlineStr"/>
+      <c r="Q519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -35798,6 +36321,7 @@
         </is>
       </c>
       <c r="P520" t="inlineStr"/>
+      <c r="Q520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -35866,11 +36390,12 @@
         </is>
       </c>
       <c r="P521" t="inlineStr"/>
+      <c r="Q521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Environmental Science And Policy B.S., WITH environmental analysis concentration</t>
+          <t>Environmental Science And Policy B.S., with Environmental Analysis Concentration</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -35934,11 +36459,12 @@
         </is>
       </c>
       <c r="P522" t="inlineStr"/>
+      <c r="Q522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Environmental Science And Policy B.S., WITH environmental policy and sustainability concentration</t>
+          <t>Environmental Science And Policy B.S., with Environmental Policy and Sustainability Concentration</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -36002,11 +36528,12 @@
         </is>
       </c>
       <c r="P523" t="inlineStr"/>
+      <c r="Q523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Environmental Science And Policy B.S., WITH environmental science concentration</t>
+          <t>Environmental Science And Policy B.S., with Environmental Science Concentration</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -36070,11 +36597,12 @@
         </is>
       </c>
       <c r="P524" t="inlineStr"/>
+      <c r="Q524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Geography And Geographic Information Systems B.A., WITH geographic information systems concentration</t>
+          <t>Geography And Geographic Information Systems B.A., with Geographic Information Systems Concentration</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -36138,11 +36666,12 @@
         </is>
       </c>
       <c r="P525" t="inlineStr"/>
+      <c r="Q525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Geography And Geographic Information Systems B.A., WITH geography concentration</t>
+          <t>Geography And Geographic Information Systems B.A., with Geography Concentration</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -36206,11 +36735,12 @@
         </is>
       </c>
       <c r="P526" t="inlineStr"/>
+      <c r="Q526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Geography And Geographic Information Systems B.A., WITH society and environment concentration</t>
+          <t>Geography And Geographic Information Systems B.A., with Society and Environment Concentration</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -36274,6 +36804,7 @@
         </is>
       </c>
       <c r="P527" t="inlineStr"/>
+      <c r="Q527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -36342,6 +36873,7 @@
         </is>
       </c>
       <c r="P528" t="inlineStr"/>
+      <c r="Q528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -36410,6 +36942,7 @@
         </is>
       </c>
       <c r="P529" t="inlineStr"/>
+      <c r="Q529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -36478,6 +37011,7 @@
         </is>
       </c>
       <c r="P530" t="inlineStr"/>
+      <c r="Q530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -36546,6 +37080,7 @@
         </is>
       </c>
       <c r="P531" t="inlineStr"/>
+      <c r="Q531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -36612,6 +37147,7 @@
         </is>
       </c>
       <c r="P532" t="inlineStr"/>
+      <c r="Q532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -36680,6 +37216,7 @@
         </is>
       </c>
       <c r="P533" t="inlineStr"/>
+      <c r="Q533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -36748,11 +37285,12 @@
         </is>
       </c>
       <c r="P534" t="inlineStr"/>
+      <c r="Q534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Humanities And Cultural Studies B.A., WITH american studies concentration</t>
+          <t>Humanities And Cultural Studies B.A., with American Studies Concentration</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -36816,6 +37354,7 @@
         </is>
       </c>
       <c r="P535" t="inlineStr"/>
+      <c r="Q535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -36884,6 +37423,7 @@
         </is>
       </c>
       <c r="P536" t="inlineStr"/>
+      <c r="Q536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -36952,11 +37492,12 @@
         </is>
       </c>
       <c r="P537" t="inlineStr"/>
+      <c r="Q537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Information Science B.S., WITH data science and analytics concentration</t>
+          <t>Information Science B.S., with Data Science and Analytics Concentration</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -37020,11 +37561,12 @@
         </is>
       </c>
       <c r="P538" t="inlineStr"/>
+      <c r="Q538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Information Science B.S., WITH health informatics concentration</t>
+          <t>Information Science B.S., with Health Informatics Concentration</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -37088,11 +37630,12 @@
         </is>
       </c>
       <c r="P539" t="inlineStr"/>
+      <c r="Q539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Information Science B.S., WITH information security concentration</t>
+          <t>Information Science B.S., with Information Security Concentration</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -37156,11 +37699,12 @@
         </is>
       </c>
       <c r="P540" t="inlineStr"/>
+      <c r="Q540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Information Science B.S., WITH intelligence analysis concentration</t>
+          <t>Information Science B.S., with Intelligence Analysis Concentration</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -37224,11 +37768,12 @@
         </is>
       </c>
       <c r="P541" t="inlineStr"/>
+      <c r="Q541" t="inlineStr"/>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Information Science B.S., WITH web development technologies concentration</t>
+          <t>Information Science B.S., with Web Development Technologies Concentration</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -37292,6 +37837,7 @@
         </is>
       </c>
       <c r="P542" t="inlineStr"/>
+      <c r="Q542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -37360,6 +37906,7 @@
         </is>
       </c>
       <c r="P543" t="inlineStr"/>
+      <c r="Q543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -37428,6 +37975,7 @@
         </is>
       </c>
       <c r="P544" t="inlineStr"/>
+      <c r="Q544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -37496,11 +38044,12 @@
         </is>
       </c>
       <c r="P545" t="inlineStr"/>
+      <c r="Q545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Biology B.S., WITH animal biology concentration</t>
+          <t>Biology B.S., with Animal Biology Concentration</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -37564,11 +38113,12 @@
         </is>
       </c>
       <c r="P546" t="inlineStr"/>
+      <c r="Q546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Biology B.S., WITH ecology and evolution concentration</t>
+          <t>Biology B.S., with Ecology and Evolution Concentration</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -37632,11 +38182,12 @@
         </is>
       </c>
       <c r="P547" t="inlineStr"/>
+      <c r="Q547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Biology B.S., WITH medical biology concentration</t>
+          <t>Biology B.S., with Medical Biology Concentration</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -37700,11 +38251,12 @@
         </is>
       </c>
       <c r="P548" t="inlineStr"/>
+      <c r="Q548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Biology B.S., WITH plant biology concentration</t>
+          <t>Biology B.S., with Plant Biology Concentration</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -37768,6 +38320,7 @@
         </is>
       </c>
       <c r="P549" t="inlineStr"/>
+      <c r="Q549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -37836,6 +38389,7 @@
         </is>
       </c>
       <c r="P550" t="inlineStr"/>
+      <c r="Q550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -37904,6 +38458,7 @@
         </is>
       </c>
       <c r="P551" t="inlineStr"/>
+      <c r="Q551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -37972,6 +38527,7 @@
         </is>
       </c>
       <c r="P552" t="inlineStr"/>
+      <c r="Q552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -38040,6 +38596,7 @@
         </is>
       </c>
       <c r="P553" t="inlineStr"/>
+      <c r="Q553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -38108,6 +38665,7 @@
         </is>
       </c>
       <c r="P554" t="inlineStr"/>
+      <c r="Q554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -38176,6 +38734,7 @@
         </is>
       </c>
       <c r="P555" t="inlineStr"/>
+      <c r="Q555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -38244,6 +38803,7 @@
         </is>
       </c>
       <c r="P556" t="inlineStr"/>
+      <c r="Q556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -38312,6 +38872,7 @@
         </is>
       </c>
       <c r="P557" t="inlineStr"/>
+      <c r="Q557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -38380,11 +38941,12 @@
         </is>
       </c>
       <c r="P558" t="inlineStr"/>
+      <c r="Q558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Mathematics B.A., WITH applied/computational mathematics concentration</t>
+          <t>Mathematics B.A., with Applied/Computational Mathematics Concentration</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -38448,11 +39010,12 @@
         </is>
       </c>
       <c r="P559" t="inlineStr"/>
+      <c r="Q559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Mathematics B.A., WITH general mathematics concentration</t>
+          <t>Mathematics B.A., with General Mathematics Concentration</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -38516,11 +39079,12 @@
         </is>
       </c>
       <c r="P560" t="inlineStr"/>
+      <c r="Q560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Mathematics B.A., WITH pure mathematics concentration</t>
+          <t>Mathematics B.A., with Pure Mathematics Concentration</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -38584,11 +39148,12 @@
         </is>
       </c>
       <c r="P561" t="inlineStr"/>
+      <c r="Q561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Mathematics: Computational And Applied B.S., WITH data analytics and business intelligence concentration</t>
+          <t>Mathematics: Computational And Applied B.S., with Data Analytics and Business Intelligence Concentration</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -38652,11 +39217,12 @@
         </is>
       </c>
       <c r="P562" t="inlineStr"/>
+      <c r="Q562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Mathematics: Computational And Applied B.S., WITH discrete mathematics and cryptography concentration</t>
+          <t>Mathematics: Computational And Applied B.S., with Discrete Mathematics and Cryptography Concentration</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -38720,6 +39286,7 @@
         </is>
       </c>
       <c r="P563" t="inlineStr"/>
+      <c r="Q563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -38788,6 +39355,7 @@
         </is>
       </c>
       <c r="P564" t="inlineStr"/>
+      <c r="Q564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -38856,6 +39424,7 @@
         </is>
       </c>
       <c r="P565" t="inlineStr"/>
+      <c r="Q565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -38924,6 +39493,7 @@
         </is>
       </c>
       <c r="P566" t="inlineStr"/>
+      <c r="Q566" t="inlineStr"/>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -38992,6 +39562,7 @@
         </is>
       </c>
       <c r="P567" t="inlineStr"/>
+      <c r="Q567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -39060,6 +39631,7 @@
         </is>
       </c>
       <c r="P568" t="inlineStr"/>
+      <c r="Q568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -39128,6 +39700,7 @@
         </is>
       </c>
       <c r="P569" t="inlineStr"/>
+      <c r="Q569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -39196,6 +39769,7 @@
         </is>
       </c>
       <c r="P570" t="inlineStr"/>
+      <c r="Q570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -39264,6 +39838,7 @@
         </is>
       </c>
       <c r="P571" t="inlineStr"/>
+      <c r="Q571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -39332,6 +39907,7 @@
         </is>
       </c>
       <c r="P572" t="inlineStr"/>
+      <c r="Q572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -39400,6 +39976,7 @@
         </is>
       </c>
       <c r="P573" t="inlineStr"/>
+      <c r="Q573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -39468,6 +40045,7 @@
         </is>
       </c>
       <c r="P574" t="inlineStr"/>
+      <c r="Q574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -39536,11 +40114,12 @@
         </is>
       </c>
       <c r="P575" t="inlineStr"/>
+      <c r="Q575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Psychology B.A., WITH advanced research experience in psychology concentration</t>
+          <t>Psychology B.A., with Advanced Research Experience In Psychology Concentration</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -39604,11 +40183,12 @@
         </is>
       </c>
       <c r="P576" t="inlineStr"/>
+      <c r="Q576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Psychology B.A., WITH diversity concentration</t>
+          <t>Psychology B.A., with Diversity Concentration</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -39672,6 +40252,7 @@
         </is>
       </c>
       <c r="P577" t="inlineStr"/>
+      <c r="Q577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -39740,6 +40321,7 @@
         </is>
       </c>
       <c r="P578" t="inlineStr"/>
+      <c r="Q578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -39808,6 +40390,7 @@
         </is>
       </c>
       <c r="P579" t="inlineStr"/>
+      <c r="Q579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -39876,6 +40459,7 @@
         </is>
       </c>
       <c r="P580" t="inlineStr"/>
+      <c r="Q580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -39944,6 +40528,7 @@
         </is>
       </c>
       <c r="P581" t="inlineStr"/>
+      <c r="Q581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -40012,6 +40597,7 @@
         </is>
       </c>
       <c r="P582" t="inlineStr"/>
+      <c r="Q582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -40080,11 +40666,12 @@
         </is>
       </c>
       <c r="P583" t="inlineStr"/>
+      <c r="Q583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH africana studies concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., with Africana Studies Concentration</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -40148,11 +40735,12 @@
         </is>
       </c>
       <c r="P584" t="inlineStr"/>
+      <c r="Q584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH aging sciences concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., with Aging Sciences Concentration</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -40216,11 +40804,12 @@
         </is>
       </c>
       <c r="P585" t="inlineStr"/>
+      <c r="Q585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH american studies concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., with American Studies Concentration</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -40284,11 +40873,12 @@
         </is>
       </c>
       <c r="P586" t="inlineStr"/>
+      <c r="Q586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH anthropology concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., with Anthropology Concentration</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
@@ -40352,11 +40942,12 @@
         </is>
       </c>
       <c r="P587" t="inlineStr"/>
+      <c r="Q587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH behavioral healthcare concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., with Behavioral Healthcare Concentration</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
@@ -40420,11 +41011,12 @@
         </is>
       </c>
       <c r="P588" t="inlineStr"/>
+      <c r="Q588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH communication concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., with Communication Concentration</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -40488,11 +41080,12 @@
         </is>
       </c>
       <c r="P589" t="inlineStr"/>
+      <c r="Q589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH communication sciences and disorders concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., with Communication Sciences and Disorders Concentration</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -40556,11 +41149,12 @@
         </is>
       </c>
       <c r="P590" t="inlineStr"/>
+      <c r="Q590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH criminology concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., with Criminology Concentration</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -40624,11 +41218,12 @@
         </is>
       </c>
       <c r="P591" t="inlineStr"/>
+      <c r="Q591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH deaf studies concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., with Deaf Studies Concentration</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -40692,11 +41287,12 @@
         </is>
       </c>
       <c r="P592" t="inlineStr"/>
+      <c r="Q592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH economics concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., with Economics Concentration</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -40760,11 +41356,12 @@
         </is>
       </c>
       <c r="P593" t="inlineStr"/>
+      <c r="Q593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH environmental science and policy concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., with Environmental Science and Policy Concentration</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -40828,11 +41425,12 @@
         </is>
       </c>
       <c r="P594" t="inlineStr"/>
+      <c r="Q594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH geography concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., with Geography Concentration</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -40896,11 +41494,12 @@
         </is>
       </c>
       <c r="P595" t="inlineStr"/>
+      <c r="Q595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH government and global affairs concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., with Government and Global Affairs Concentration</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -40964,11 +41563,12 @@
         </is>
       </c>
       <c r="P596" t="inlineStr"/>
+      <c r="Q596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH history concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., with History Concentration</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -41032,11 +41632,12 @@
         </is>
       </c>
       <c r="P597" t="inlineStr"/>
+      <c r="Q597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH humanities concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., with Humanities Concentration</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -41100,11 +41701,12 @@
         </is>
       </c>
       <c r="P598" t="inlineStr"/>
+      <c r="Q598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH information studies concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., with Information Studies Concentration</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -41168,11 +41770,12 @@
         </is>
       </c>
       <c r="P599" t="inlineStr"/>
+      <c r="Q599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH integrated community research concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., with Integrated Community Research Concentration</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -41236,11 +41839,12 @@
         </is>
       </c>
       <c r="P600" t="inlineStr"/>
+      <c r="Q600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH international studies concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., with International Studies Concentration</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -41304,11 +41908,12 @@
         </is>
       </c>
       <c r="P601" t="inlineStr"/>
+      <c r="Q601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH latin american, Caribbean,  and latino studies concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., with Latin American, Caribbean,  and Latino Studies Concentration</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -41372,11 +41977,12 @@
         </is>
       </c>
       <c r="P602" t="inlineStr"/>
+      <c r="Q602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH mass communications concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., with Mass Communications Concentration</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -41440,11 +42046,12 @@
         </is>
       </c>
       <c r="P603" t="inlineStr"/>
+      <c r="Q603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH political science concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., with Political Science Concentration</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -41508,11 +42115,12 @@
         </is>
       </c>
       <c r="P604" t="inlineStr"/>
+      <c r="Q604" t="inlineStr"/>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH psychology concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., with Psychology Concentration</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -41576,11 +42184,12 @@
         </is>
       </c>
       <c r="P605" t="inlineStr"/>
+      <c r="Q605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH public administration concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., with Public Administration Concentration</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -41644,11 +42253,12 @@
         </is>
       </c>
       <c r="P606" t="inlineStr"/>
+      <c r="Q606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH public health concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., with Public Health Concentration</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -41712,11 +42322,12 @@
         </is>
       </c>
       <c r="P607" t="inlineStr"/>
+      <c r="Q607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH social relations and policy concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., with Social Relations and Policy Concentration</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
@@ -41780,11 +42391,12 @@
         </is>
       </c>
       <c r="P608" t="inlineStr"/>
+      <c r="Q608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Interdisciplinary Social Sciences B.A., WITH Women's and gender studies concentration</t>
+          <t>Interdisciplinary Social Sciences B.A., with Women's and Gender Studies Concentration</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -41848,6 +42460,7 @@
         </is>
       </c>
       <c r="P609" t="inlineStr"/>
+      <c r="Q609" t="inlineStr"/>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -41916,11 +42529,12 @@
         </is>
       </c>
       <c r="P610" t="inlineStr"/>
+      <c r="Q610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>Sociology B.A., WITH identity and community concentration</t>
+          <t>Sociology B.A., with Identity and Community Concentration</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -41984,11 +42598,12 @@
         </is>
       </c>
       <c r="P611" t="inlineStr"/>
+      <c r="Q611" t="inlineStr"/>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>Sociology B.A., WITH inequality and social justice concentration</t>
+          <t>Sociology B.A., with Inequality and Social Justice Concentration</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -42052,6 +42667,7 @@
         </is>
       </c>
       <c r="P612" t="inlineStr"/>
+      <c r="Q612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -42120,11 +42736,12 @@
         </is>
       </c>
       <c r="P613" t="inlineStr"/>
+      <c r="Q613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Women'S, GENDER, and sexuality studies b.a.</t>
+          <t>Women's, Gender, and Sexuality Studies B.A.</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -42188,6 +42805,7 @@
         </is>
       </c>
       <c r="P614" t="inlineStr"/>
+      <c r="Q614" t="inlineStr"/>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -42256,11 +42874,12 @@
         </is>
       </c>
       <c r="P615" t="inlineStr"/>
+      <c r="Q615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>Women'S, GENDER, and sexuality studies minor</t>
+          <t>Women's, Gender, and Sexuality Studies Minor</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -42324,11 +42943,12 @@
         </is>
       </c>
       <c r="P616" t="inlineStr"/>
+      <c r="Q616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>World Languages And Cultures B.A., WITH applied linguistics concentration</t>
+          <t>World Languages And Cultures B.A., with Applied Linguistics Concentration</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -42392,11 +43012,12 @@
         </is>
       </c>
       <c r="P617" t="inlineStr"/>
+      <c r="Q617" t="inlineStr"/>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>World Languages And Cultures B.A., WITH chinese language and culture concentration</t>
+          <t>World Languages And Cultures B.A., with Chinese Language and Culture Concentration</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
@@ -42460,11 +43081,12 @@
         </is>
       </c>
       <c r="P618" t="inlineStr"/>
+      <c r="Q618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>World Languages And Cultures B.A., WITH classics concentration</t>
+          <t>World Languages And Cultures B.A., with Classics Concentration</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -42528,11 +43150,12 @@
         </is>
       </c>
       <c r="P619" t="inlineStr"/>
+      <c r="Q619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>World Languages And Cultures B.A., WITH east asian languages and cultures concentration</t>
+          <t>World Languages And Cultures B.A., with East Asian Languages and Cultures Concentration</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -42596,11 +43219,12 @@
         </is>
       </c>
       <c r="P620" t="inlineStr"/>
+      <c r="Q620" t="inlineStr"/>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>World Languages And Cultures B.A., WITH french and francophone studies concentration</t>
+          <t>World Languages And Cultures B.A., with French and Francophone Studies Concentration</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -42664,11 +43288,12 @@
         </is>
       </c>
       <c r="P621" t="inlineStr"/>
+      <c r="Q621" t="inlineStr"/>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>World Languages And Cultures B.A., WITH german concentration</t>
+          <t>World Languages And Cultures B.A., with German Concentration</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -42732,11 +43357,12 @@
         </is>
       </c>
       <c r="P622" t="inlineStr"/>
+      <c r="Q622" t="inlineStr"/>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>World Languages And Cultures B.A., WITH interdisciplinary classical civilizations concentration</t>
+          <t>World Languages And Cultures B.A., with Interdisciplinary Classical Civilizations Concentration</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -42800,11 +43426,12 @@
         </is>
       </c>
       <c r="P623" t="inlineStr"/>
+      <c r="Q623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>World Languages And Cultures B.A., WITH italian concentration</t>
+          <t>World Languages And Cultures B.A., with Italian Concentration</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -42868,11 +43495,12 @@
         </is>
       </c>
       <c r="P624" t="inlineStr"/>
+      <c r="Q624" t="inlineStr"/>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>World Languages And Cultures B.A., WITH russian concentration</t>
+          <t>World Languages And Cultures B.A., with Russian Concentration</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -42936,11 +43564,12 @@
         </is>
       </c>
       <c r="P625" t="inlineStr"/>
+      <c r="Q625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>World Languages And Cultures B.A., WITH spanish and latin american studies concentration</t>
+          <t>World Languages And Cultures B.A., with Spanish and Latin American Studies Concentration</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -43004,6 +43633,7 @@
         </is>
       </c>
       <c r="P626" t="inlineStr"/>
+      <c r="Q626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -43072,6 +43702,7 @@
         </is>
       </c>
       <c r="P627" t="inlineStr"/>
+      <c r="Q627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -43140,6 +43771,7 @@
         </is>
       </c>
       <c r="P628" t="inlineStr"/>
+      <c r="Q628" t="inlineStr"/>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -43208,6 +43840,7 @@
         </is>
       </c>
       <c r="P629" t="inlineStr"/>
+      <c r="Q629" t="inlineStr"/>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -43276,6 +43909,7 @@
         </is>
       </c>
       <c r="P630" t="inlineStr"/>
+      <c r="Q630" t="inlineStr"/>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -43344,6 +43978,7 @@
         </is>
       </c>
       <c r="P631" t="inlineStr"/>
+      <c r="Q631" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
